--- a/data/bornpowerindex.xlsx
+++ b/data/bornpowerindex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1469">
   <si>
     <t>Index</t>
   </si>
@@ -2743,7 +2743,7 @@
     <t>67.7</t>
   </si>
   <si>
-    <t>108</t>
+    <t>106.7</t>
   </si>
   <si>
     <t>72.4</t>
@@ -2755,1405 +2755,1384 @@
     <t>81.5</t>
   </si>
   <si>
-    <t>108.2</t>
+    <t>107.4</t>
+  </si>
+  <si>
+    <t>98.4</t>
+  </si>
+  <si>
+    <t>75.3</t>
+  </si>
+  <si>
+    <t>91.7</t>
+  </si>
+  <si>
+    <t>96.9</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>100.2</t>
+  </si>
+  <si>
+    <t>96.5</t>
+  </si>
+  <si>
+    <t>94.5</t>
+  </si>
+  <si>
+    <t>78.9</t>
+  </si>
+  <si>
+    <t>103.1</t>
+  </si>
+  <si>
+    <t>78.1</t>
+  </si>
+  <si>
+    <t>87.3</t>
+  </si>
+  <si>
+    <t>91.2</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>88.8</t>
+  </si>
+  <si>
+    <t>102.4</t>
+  </si>
+  <si>
+    <t>101.6</t>
+  </si>
+  <si>
+    <t>74.4</t>
+  </si>
+  <si>
+    <t>84.8</t>
+  </si>
+  <si>
+    <t>89.7</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>64.8</t>
+  </si>
+  <si>
+    <t>105.6</t>
+  </si>
+  <si>
+    <t>68.5</t>
+  </si>
+  <si>
+    <t>71.2</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>108.7</t>
+  </si>
+  <si>
+    <t>82.3</t>
+  </si>
+  <si>
+    <t>69.5</t>
+  </si>
+  <si>
+    <t>95.4</t>
+  </si>
+  <si>
+    <t>75.7</t>
+  </si>
+  <si>
+    <t>83.6</t>
+  </si>
+  <si>
+    <t>97.4</t>
+  </si>
+  <si>
+    <t>113.2</t>
+  </si>
+  <si>
+    <t>100.6</t>
+  </si>
+  <si>
+    <t>88.6</t>
+  </si>
+  <si>
+    <t>84.4</t>
+  </si>
+  <si>
+    <t>59.8</t>
+  </si>
+  <si>
+    <t>46.8</t>
+  </si>
+  <si>
+    <t>90.2</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>80.7</t>
+  </si>
+  <si>
+    <t>105.1</t>
+  </si>
+  <si>
+    <t>102.8</t>
+  </si>
+  <si>
+    <t>90.7</t>
+  </si>
+  <si>
+    <t>81.7</t>
+  </si>
+  <si>
+    <t>67.6</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>101.1</t>
+  </si>
+  <si>
+    <t>84.7</t>
+  </si>
+  <si>
+    <t>107.3</t>
+  </si>
+  <si>
+    <t>60.4</t>
+  </si>
+  <si>
+    <t>112.4</t>
+  </si>
+  <si>
+    <t>86.6</t>
+  </si>
+  <si>
+    <t>100.3</t>
+  </si>
+  <si>
+    <t>91.4</t>
+  </si>
+  <si>
+    <t>96.2</t>
+  </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>93.2</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>82.9</t>
+  </si>
+  <si>
+    <t>119.2</t>
+  </si>
+  <si>
+    <t>119.6</t>
+  </si>
+  <si>
+    <t>92.1</t>
+  </si>
+  <si>
+    <t>96.7</t>
+  </si>
+  <si>
+    <t>83.4</t>
+  </si>
+  <si>
+    <t>110.3</t>
+  </si>
+  <si>
+    <t>76.8</t>
+  </si>
+  <si>
+    <t>113.8</t>
+  </si>
+  <si>
+    <t>86.7</t>
+  </si>
+  <si>
+    <t>69.8</t>
+  </si>
+  <si>
+    <t>75.6</t>
+  </si>
+  <si>
+    <t>94.2</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>70.9</t>
+  </si>
+  <si>
+    <t>80.5</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>100.1</t>
+  </si>
+  <si>
+    <t>102.5</t>
+  </si>
+  <si>
+    <t>56.2</t>
+  </si>
+  <si>
+    <t>64.7</t>
+  </si>
+  <si>
+    <t>112.7</t>
+  </si>
+  <si>
+    <t>99.1</t>
+  </si>
+  <si>
+    <t>101.2</t>
+  </si>
+  <si>
+    <t>63.4</t>
+  </si>
+  <si>
+    <t>86.8</t>
+  </si>
+  <si>
+    <t>86.2</t>
+  </si>
+  <si>
+    <t>96.3</t>
+  </si>
+  <si>
+    <t>77.5</t>
+  </si>
+  <si>
+    <t>78.8</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>90.5</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>93.4</t>
+  </si>
+  <si>
+    <t>80.2</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>85.5</t>
   </si>
   <si>
     <t>95.7</t>
   </si>
   <si>
+    <t>82.7</t>
+  </si>
+  <si>
+    <t>95.3</t>
+  </si>
+  <si>
+    <t>82.2</t>
+  </si>
+  <si>
+    <t>73.1</t>
+  </si>
+  <si>
+    <t>88.5</t>
+  </si>
+  <si>
+    <t>91.1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>63.6</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>39.5</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>55.6</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>56.3</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>-11.9</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>40.8</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>60.2</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>60.1</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>53.4</t>
+  </si>
+  <si>
+    <t>54.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>31.8</t>
+  </si>
+  <si>
+    <t>47.1</t>
+  </si>
+  <si>
+    <t>47.9</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>53.9</t>
+  </si>
+  <si>
+    <t>-3.8</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>84.5</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>66.8</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>31.9</t>
+  </si>
+  <si>
+    <t>28.9</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>62.9</t>
+  </si>
+  <si>
+    <t>48.1</t>
+  </si>
+  <si>
+    <t>42.6</t>
+  </si>
+  <si>
+    <t>44.2</t>
+  </si>
+  <si>
+    <t>56.8</t>
+  </si>
+  <si>
+    <t>26.6</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>52.3</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>40.4</t>
+  </si>
+  <si>
+    <t>44.9</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>-1.6</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>45.1</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>53.8</t>
+  </si>
+  <si>
+    <t>46.4</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>39.1</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>45.4</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>49.6</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>39.2</t>
+  </si>
+  <si>
+    <t>61.6</t>
+  </si>
+  <si>
+    <t>38.6</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>57.4</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>57.6</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>56.1</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>39.9</t>
+  </si>
+  <si>
+    <t>58.4</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>48.9</t>
+  </si>
+  <si>
+    <t>42.9</t>
+  </si>
+  <si>
+    <t>66.1</t>
+  </si>
+  <si>
+    <t>44.3</t>
+  </si>
+  <si>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>50.8</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>56.6</t>
+  </si>
+  <si>
+    <t>45.3</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>55.9</t>
+  </si>
+  <si>
+    <t>34.8</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>-11.7</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>-3.2</t>
+  </si>
+  <si>
+    <t>-18.8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>-9.4</t>
+  </si>
+  <si>
+    <t>-3.7</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>-32.8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>-7.2</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>-7.1</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>-4.3</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>-2.7</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>-23.7</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>37.3</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>-23.1</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-29.9</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>-43.8</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>41.4</t>
+  </si>
+  <si>
+    <t>-28.7</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>-28.8</t>
+  </si>
+  <si>
+    <t>-22.9</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>-16.5</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-1.1</t>
+  </si>
+  <si>
+    <t>-19.7</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>-8.3</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>-5.5</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>-19.9</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>-23.8</t>
+  </si>
+  <si>
+    <t>-12.4</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>48.6</t>
+  </si>
+  <si>
+    <t>-17.9</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>-14.7</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>-5.7</t>
+  </si>
+  <si>
+    <t>-36.4</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>-20.2</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-9.5</t>
+  </si>
+  <si>
+    <t>-31.2</t>
+  </si>
+  <si>
+    <t>-18.7</t>
+  </si>
+  <si>
+    <t>47.8</t>
+  </si>
+  <si>
+    <t>-12.6</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>-10.9</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>-4.6</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>-6.8</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>-6.3</t>
+  </si>
+  <si>
+    <t>-27.9</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>-13.3</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>-25.7</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>-4.9</t>
+  </si>
+  <si>
+    <t>-9.8</t>
+  </si>
+  <si>
+    <t>41.2</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>-17.3</t>
+  </si>
+  <si>
+    <t>-30.9</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>-10.1</t>
+  </si>
+  <si>
+    <t>-1.3</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>-25.2</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>46.2</t>
+  </si>
+  <si>
+    <t>55.4</t>
+  </si>
+  <si>
+    <t>59.2</t>
+  </si>
+  <si>
+    <t>41.9</t>
+  </si>
+  <si>
+    <t>49.2</t>
+  </si>
+  <si>
+    <t>79.2</t>
+  </si>
+  <si>
+    <t>52.2</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>65.7</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>57.1</t>
+  </si>
+  <si>
+    <t>52.9</t>
+  </si>
+  <si>
+    <t>56.9</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>42.3</t>
+  </si>
+  <si>
+    <t>53.7</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>60.9</t>
+  </si>
+  <si>
+    <t>58.2</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>65.4</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>51.6</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>71.1</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>52.1</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>61.3</t>
+  </si>
+  <si>
+    <t>61.2</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>70.6</t>
+  </si>
+  <si>
     <t>72.6</t>
   </si>
   <si>
-    <t>90.2</t>
-  </si>
-  <si>
-    <t>96.9</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>102.2</t>
-  </si>
-  <si>
-    <t>96.5</t>
-  </si>
-  <si>
-    <t>95.3</t>
-  </si>
-  <si>
-    <t>81.6</t>
-  </si>
-  <si>
-    <t>97.9</t>
-  </si>
-  <si>
-    <t>74.2</t>
-  </si>
-  <si>
-    <t>88.5</t>
-  </si>
-  <si>
-    <t>91.2</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>88.8</t>
-  </si>
-  <si>
-    <t>103.6</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>106.8</t>
-  </si>
-  <si>
-    <t>78.4</t>
-  </si>
-  <si>
-    <t>92.1</t>
-  </si>
-  <si>
-    <t>78.2</t>
-  </si>
-  <si>
-    <t>64.8</t>
-  </si>
-  <si>
-    <t>102.8</t>
-  </si>
-  <si>
-    <t>68.5</t>
-  </si>
-  <si>
-    <t>71.2</t>
-  </si>
-  <si>
-    <t>79.9</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>109.3</t>
-  </si>
-  <si>
-    <t>82.5</t>
-  </si>
-  <si>
-    <t>69.5</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>75.7</t>
-  </si>
-  <si>
-    <t>83.6</t>
-  </si>
-  <si>
-    <t>94.9</t>
-  </si>
-  <si>
-    <t>114.3</t>
-  </si>
-  <si>
-    <t>101.4</t>
-  </si>
-  <si>
-    <t>96.2</t>
-  </si>
-  <si>
-    <t>84.8</t>
-  </si>
-  <si>
-    <t>100.9</t>
-  </si>
-  <si>
-    <t>59.8</t>
-  </si>
-  <si>
-    <t>46.8</t>
-  </si>
-  <si>
-    <t>71.7</t>
-  </si>
-  <si>
-    <t>78.3</t>
-  </si>
-  <si>
-    <t>83.3</t>
-  </si>
-  <si>
-    <t>103.1</t>
-  </si>
-  <si>
-    <t>77.9</t>
-  </si>
-  <si>
-    <t>104.4</t>
-  </si>
-  <si>
-    <t>90.7</t>
-  </si>
-  <si>
-    <t>81.7</t>
-  </si>
-  <si>
-    <t>67.6</t>
-  </si>
-  <si>
-    <t>91.6</t>
-  </si>
-  <si>
-    <t>102.3</t>
-  </si>
-  <si>
-    <t>80.7</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>60.4</t>
-  </si>
-  <si>
-    <t>99.5</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>86.6</t>
-  </si>
-  <si>
-    <t>89.8</t>
-  </si>
-  <si>
-    <t>95.4</t>
-  </si>
-  <si>
-    <t>78.5</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>73.8</t>
-  </si>
-  <si>
-    <t>63.7</t>
-  </si>
-  <si>
-    <t>88.1</t>
-  </si>
-  <si>
-    <t>77.2</t>
-  </si>
-  <si>
-    <t>75.2</t>
-  </si>
-  <si>
-    <t>82.9</t>
-  </si>
-  <si>
-    <t>117.5</t>
-  </si>
-  <si>
-    <t>113.1</t>
-  </si>
-  <si>
-    <t>92.2</t>
-  </si>
-  <si>
-    <t>98.3</t>
-  </si>
-  <si>
-    <t>75.3</t>
-  </si>
-  <si>
-    <t>83.4</t>
-  </si>
-  <si>
-    <t>113.4</t>
-  </si>
-  <si>
-    <t>76.8</t>
-  </si>
-  <si>
-    <t>109.6</t>
-  </si>
-  <si>
-    <t>89.5</t>
-  </si>
-  <si>
-    <t>69.8</t>
-  </si>
-  <si>
-    <t>75.6</t>
-  </si>
-  <si>
-    <t>93.5</t>
-  </si>
-  <si>
-    <t>76.5</t>
-  </si>
-  <si>
-    <t>70.9</t>
-  </si>
-  <si>
-    <t>80.9</t>
-  </si>
-  <si>
-    <t>83.5</t>
-  </si>
-  <si>
-    <t>105.6</t>
-  </si>
-  <si>
-    <t>99.3</t>
-  </si>
-  <si>
-    <t>106.7</t>
-  </si>
-  <si>
-    <t>56.2</t>
-  </si>
-  <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>94.4</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>108.5</t>
-  </si>
-  <si>
-    <t>110.5</t>
-  </si>
-  <si>
-    <t>99.9</t>
-  </si>
-  <si>
-    <t>98.6</t>
-  </si>
-  <si>
-    <t>63.4</t>
-  </si>
-  <si>
-    <t>83.2</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>74.7</t>
-  </si>
-  <si>
-    <t>78.8</t>
-  </si>
-  <si>
-    <t>94.8</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>90.5</t>
-  </si>
-  <si>
-    <t>68.9</t>
-  </si>
-  <si>
-    <t>93.4</t>
-  </si>
-  <si>
-    <t>80.2</t>
-  </si>
-  <si>
-    <t>85.5</t>
-  </si>
-  <si>
-    <t>97.8</t>
-  </si>
-  <si>
-    <t>82.7</t>
-  </si>
-  <si>
-    <t>93.7</t>
-  </si>
-  <si>
-    <t>72.7</t>
-  </si>
-  <si>
-    <t>88.9</t>
-  </si>
-  <si>
-    <t>91.1</t>
-  </si>
-  <si>
-    <t>76.7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>19.2</t>
-  </si>
-  <si>
-    <t>63.6</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>39.5</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>55.6</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>56.3</t>
-  </si>
-  <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>-11.9</t>
-  </si>
-  <si>
-    <t>29.1</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>40.8</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>60.2</t>
-  </si>
-  <si>
-    <t>54.3</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>60.1</t>
-  </si>
-  <si>
-    <t>39.3</t>
-  </si>
-  <si>
-    <t>47.2</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>28.2</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>53.4</t>
-  </si>
-  <si>
-    <t>54.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>31.8</t>
-  </si>
-  <si>
-    <t>47.1</t>
-  </si>
-  <si>
-    <t>47.9</t>
-  </si>
-  <si>
-    <t>33.8</t>
-  </si>
-  <si>
-    <t>21.8</t>
-  </si>
-  <si>
-    <t>46.3</t>
-  </si>
-  <si>
-    <t>29.4</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>53.9</t>
-  </si>
-  <si>
-    <t>-3.8</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>80.4</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>66.8</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>31.9</t>
-  </si>
-  <si>
-    <t>28.9</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>25.8</t>
-  </si>
-  <si>
-    <t>27.2</t>
-  </si>
-  <si>
-    <t>62.9</t>
-  </si>
-  <si>
-    <t>48.1</t>
-  </si>
-  <si>
-    <t>42.6</t>
-  </si>
-  <si>
-    <t>44.2</t>
-  </si>
-  <si>
-    <t>56.8</t>
-  </si>
-  <si>
-    <t>26.6</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>52.3</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>40.4</t>
-  </si>
-  <si>
-    <t>44.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>-1.6</t>
-  </si>
-  <si>
-    <t>18.9</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>45.1</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>40.5</t>
-  </si>
-  <si>
-    <t>49.3</t>
-  </si>
-  <si>
-    <t>38.8</t>
-  </si>
-  <si>
-    <t>21.4</t>
-  </si>
-  <si>
-    <t>53.8</t>
-  </si>
-  <si>
-    <t>46.4</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>39.1</t>
-  </si>
-  <si>
-    <t>27.6</t>
-  </si>
-  <si>
-    <t>45.4</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>49.6</t>
-  </si>
-  <si>
-    <t>29.8</t>
-  </si>
-  <si>
-    <t>41.5</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>43.9</t>
-  </si>
-  <si>
-    <t>39.2</t>
-  </si>
-  <si>
-    <t>61.6</t>
-  </si>
-  <si>
-    <t>38.6</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>25.1</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>57.4</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>57.6</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>56.1</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>20.6</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>23.4</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>39.9</t>
-  </si>
-  <si>
-    <t>58.4</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>48.9</t>
-  </si>
-  <si>
-    <t>42.9</t>
-  </si>
-  <si>
-    <t>70.2</t>
-  </si>
-  <si>
-    <t>44.3</t>
-  </si>
-  <si>
-    <t>50.6</t>
-  </si>
-  <si>
-    <t>17.6</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>50.8</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>46.5</t>
-  </si>
-  <si>
-    <t>50.4</t>
-  </si>
-  <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>56.6</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>55.9</t>
-  </si>
-  <si>
-    <t>34.8</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>26.8</t>
-  </si>
-  <si>
-    <t>-11.7</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>-3.2</t>
-  </si>
-  <si>
-    <t>-18.8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>-9.4</t>
-  </si>
-  <si>
-    <t>-3.7</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>-32.8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>36.2</t>
-  </si>
-  <si>
-    <t>-7.2</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>-7.1</t>
-  </si>
-  <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>-4.3</t>
-  </si>
-  <si>
-    <t>28.8</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>-2.7</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>-23.7</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>-5.1</t>
-  </si>
-  <si>
-    <t>37.3</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>27.4</t>
-  </si>
-  <si>
-    <t>-23.1</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-29.9</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>-43.8</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>28.4</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>41.4</t>
-  </si>
-  <si>
-    <t>-28.7</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>-28.8</t>
-  </si>
-  <si>
-    <t>-22.9</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>-16.5</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>-15</t>
-  </si>
-  <si>
-    <t>-1.1</t>
-  </si>
-  <si>
-    <t>-19.7</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>-8.3</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>-5.5</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>-19.9</t>
-  </si>
-  <si>
-    <t>27.9</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>-23.8</t>
-  </si>
-  <si>
-    <t>-12.4</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>29.9</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>48.6</t>
-  </si>
-  <si>
-    <t>-17.9</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>-14.7</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>23.9</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>-5.7</t>
-  </si>
-  <si>
-    <t>-36.4</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>-20.2</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>-9.5</t>
-  </si>
-  <si>
-    <t>-31.2</t>
-  </si>
-  <si>
-    <t>-18.7</t>
-  </si>
-  <si>
-    <t>47.8</t>
-  </si>
-  <si>
-    <t>-12.6</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>20.9</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>-10.9</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>-4.6</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>-6.8</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>53.6</t>
-  </si>
-  <si>
-    <t>23.6</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>65.5</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>-6.3</t>
-  </si>
-  <si>
-    <t>-27.9</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>-13.3</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>30.1</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>-25.7</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>-4.9</t>
-  </si>
-  <si>
-    <t>-9.8</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>30.9</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>-17.3</t>
-  </si>
-  <si>
-    <t>-30.9</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>-10.1</t>
-  </si>
-  <si>
-    <t>-1.3</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>51.2</t>
-  </si>
-  <si>
-    <t>51.9</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>27.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>-25.2</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>46.2</t>
-  </si>
-  <si>
-    <t>55.4</t>
-  </si>
-  <si>
-    <t>59.2</t>
-  </si>
-  <si>
-    <t>41.9</t>
-  </si>
-  <si>
-    <t>49.2</t>
-  </si>
-  <si>
-    <t>79.2</t>
-  </si>
-  <si>
-    <t>52.2</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>65.7</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>57.1</t>
-  </si>
-  <si>
-    <t>52.9</t>
-  </si>
-  <si>
-    <t>56.9</t>
-  </si>
-  <si>
-    <t>37.1</t>
-  </si>
-  <si>
-    <t>66.5</t>
-  </si>
-  <si>
-    <t>42.3</t>
-  </si>
-  <si>
-    <t>53.7</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>60.9</t>
-  </si>
-  <si>
-    <t>58.2</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>65.4</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
-    <t>51.6</t>
-  </si>
-  <si>
-    <t>40.1</t>
-  </si>
-  <si>
-    <t>71.1</t>
-  </si>
-  <si>
-    <t>69.7</t>
-  </si>
-  <si>
-    <t>52.1</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>46.6</t>
-  </si>
-  <si>
-    <t>61.3</t>
-  </si>
-  <si>
-    <t>61.2</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
-    <t>70.6</t>
-  </si>
-  <si>
-    <t>93</t>
+    <t>94.3</t>
   </si>
   <si>
     <t>38.1</t>
@@ -4180,7 +4159,7 @@
     <t>66</t>
   </si>
   <si>
-    <t>91.4</t>
+    <t>93.3</t>
   </si>
   <si>
     <t>69.1</t>
@@ -4195,9 +4174,6 @@
     <t>63.3</t>
   </si>
   <si>
-    <t>41.2</t>
-  </si>
-  <si>
     <t>45.6</t>
   </si>
   <si>
@@ -4216,10 +4192,10 @@
     <t>63.9</t>
   </si>
   <si>
-    <t>86.9</t>
-  </si>
-  <si>
-    <t>96</t>
+    <t>85.6</t>
+  </si>
+  <si>
+    <t>94.1</t>
   </si>
   <si>
     <t>63.5</t>
@@ -4337,9 +4313,6 @@
   </si>
   <si>
     <t>37.2</t>
-  </si>
-  <si>
-    <t>47.7</t>
   </si>
   <si>
     <t>13.8</t>
@@ -5305,7 +5278,7 @@
         <v>901</v>
       </c>
       <c r="E25" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="F25">
         <v>88</v>
@@ -5325,7 +5298,7 @@
         <v>901</v>
       </c>
       <c r="E26" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F26">
         <v>88</v>
@@ -5345,7 +5318,7 @@
         <v>901</v>
       </c>
       <c r="E27" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F27">
         <v>86</v>
@@ -5365,7 +5338,7 @@
         <v>901</v>
       </c>
       <c r="E28" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="F28">
         <v>67</v>
@@ -5525,7 +5498,7 @@
         <v>901</v>
       </c>
       <c r="E36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F36">
         <v>83</v>
@@ -5545,7 +5518,7 @@
         <v>901</v>
       </c>
       <c r="E37" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F37">
         <v>86</v>
@@ -5565,7 +5538,7 @@
         <v>901</v>
       </c>
       <c r="E38" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F38">
         <v>88</v>
@@ -5585,7 +5558,7 @@
         <v>901</v>
       </c>
       <c r="E39" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F39">
         <v>85</v>
@@ -5605,7 +5578,7 @@
         <v>901</v>
       </c>
       <c r="E40" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F40">
         <v>83</v>
@@ -5625,7 +5598,7 @@
         <v>901</v>
       </c>
       <c r="E41" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F41">
         <v>50</v>
@@ -5645,7 +5618,7 @@
         <v>901</v>
       </c>
       <c r="E42" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F42">
         <v>86</v>
@@ -5665,7 +5638,7 @@
         <v>901</v>
       </c>
       <c r="E43" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F43">
         <v>88</v>
@@ -5685,7 +5658,7 @@
         <v>901</v>
       </c>
       <c r="E44" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F44">
         <v>86</v>
@@ -5705,7 +5678,7 @@
         <v>901</v>
       </c>
       <c r="E45" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F45">
         <v>75</v>
@@ -5725,7 +5698,7 @@
         <v>901</v>
       </c>
       <c r="E46" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F46">
         <v>80</v>
@@ -5745,7 +5718,7 @@
         <v>901</v>
       </c>
       <c r="E47" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="F47">
         <v>89</v>
@@ -5765,7 +5738,7 @@
         <v>901</v>
       </c>
       <c r="E48" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F48">
         <v>85</v>
@@ -5805,7 +5778,7 @@
         <v>901</v>
       </c>
       <c r="E50" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="F50">
         <v>83</v>
@@ -5825,7 +5798,7 @@
         <v>901</v>
       </c>
       <c r="E51" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F51">
         <v>86</v>
@@ -5845,7 +5818,7 @@
         <v>901</v>
       </c>
       <c r="E52" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F52">
         <v>80</v>
@@ -5865,7 +5838,7 @@
         <v>901</v>
       </c>
       <c r="E53" t="s">
-        <v>916</v>
+        <v>953</v>
       </c>
       <c r="F53">
         <v>88</v>
@@ -5885,7 +5858,7 @@
         <v>901</v>
       </c>
       <c r="E54" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F54">
         <v>60</v>
@@ -5905,7 +5878,7 @@
         <v>901</v>
       </c>
       <c r="E55" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="F55">
         <v>86</v>
@@ -5925,7 +5898,7 @@
         <v>901</v>
       </c>
       <c r="E56" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F56">
         <v>89</v>
@@ -5945,7 +5918,7 @@
         <v>901</v>
       </c>
       <c r="E57" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F57">
         <v>69</v>
@@ -5965,7 +5938,7 @@
         <v>901</v>
       </c>
       <c r="E58" t="s">
-        <v>959</v>
+        <v>911</v>
       </c>
       <c r="F58">
         <v>62</v>
@@ -5985,7 +5958,7 @@
         <v>901</v>
       </c>
       <c r="E59" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F59">
         <v>38</v>
@@ -6005,7 +5978,7 @@
         <v>901</v>
       </c>
       <c r="E60" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F60">
         <v>88</v>
@@ -6025,7 +5998,7 @@
         <v>901</v>
       </c>
       <c r="E61" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F61">
         <v>88</v>
@@ -6045,7 +6018,7 @@
         <v>901</v>
       </c>
       <c r="E62" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F62">
         <v>92</v>
@@ -6065,7 +6038,7 @@
         <v>901</v>
       </c>
       <c r="E63" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F63">
         <v>86</v>
@@ -6085,7 +6058,7 @@
         <v>901</v>
       </c>
       <c r="E64" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F64">
         <v>62</v>
@@ -6105,7 +6078,7 @@
         <v>901</v>
       </c>
       <c r="E65" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F65">
         <v>43</v>
@@ -6125,7 +6098,7 @@
         <v>901</v>
       </c>
       <c r="E66" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F66">
         <v>88</v>
@@ -6145,7 +6118,7 @@
         <v>901</v>
       </c>
       <c r="E67" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="F67">
         <v>86</v>
@@ -6165,7 +6138,7 @@
         <v>901</v>
       </c>
       <c r="E68" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F68">
         <v>74</v>
@@ -6185,7 +6158,7 @@
         <v>901</v>
       </c>
       <c r="E69" t="s">
-        <v>969</v>
+        <v>930</v>
       </c>
       <c r="F69">
         <v>89</v>
@@ -6205,7 +6178,7 @@
         <v>901</v>
       </c>
       <c r="E70" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F70">
         <v>71</v>
@@ -6225,7 +6198,7 @@
         <v>901</v>
       </c>
       <c r="E71" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F71">
         <v>58</v>
@@ -6245,7 +6218,7 @@
         <v>901</v>
       </c>
       <c r="E72" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F72">
         <v>88</v>
@@ -6265,7 +6238,7 @@
         <v>901</v>
       </c>
       <c r="E73" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F73">
         <v>75</v>
@@ -6285,7 +6258,7 @@
         <v>901</v>
       </c>
       <c r="E74" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F74">
         <v>88</v>
@@ -6305,7 +6278,7 @@
         <v>901</v>
       </c>
       <c r="E75" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F75">
         <v>83</v>
@@ -6325,7 +6298,7 @@
         <v>901</v>
       </c>
       <c r="E76" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F76">
         <v>44</v>
@@ -6345,7 +6318,7 @@
         <v>901</v>
       </c>
       <c r="E77" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F77">
         <v>80</v>
@@ -6365,7 +6338,7 @@
         <v>901</v>
       </c>
       <c r="E78" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F78">
         <v>81</v>
@@ -6385,7 +6358,7 @@
         <v>901</v>
       </c>
       <c r="E79" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F79">
         <v>74</v>
@@ -6405,7 +6378,7 @@
         <v>901</v>
       </c>
       <c r="E80" t="s">
-        <v>978</v>
+        <v>932</v>
       </c>
       <c r="F80">
         <v>86</v>
@@ -6425,7 +6398,7 @@
         <v>901</v>
       </c>
       <c r="E81" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F81">
         <v>88</v>
@@ -6445,7 +6418,7 @@
         <v>901</v>
       </c>
       <c r="E82" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F82">
         <v>82</v>
@@ -6465,7 +6438,7 @@
         <v>901</v>
       </c>
       <c r="E83" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F83">
         <v>92</v>
@@ -6485,7 +6458,7 @@
         <v>901</v>
       </c>
       <c r="E84" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F84">
         <v>80</v>
@@ -6505,7 +6478,7 @@
         <v>901</v>
       </c>
       <c r="E85" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F85">
         <v>80</v>
@@ -6525,7 +6498,7 @@
         <v>901</v>
       </c>
       <c r="E86" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F86">
         <v>43</v>
@@ -6545,7 +6518,7 @@
         <v>901</v>
       </c>
       <c r="E87" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F87">
         <v>88</v>
@@ -6565,7 +6538,7 @@
         <v>901</v>
       </c>
       <c r="E88" t="s">
-        <v>986</v>
+        <v>915</v>
       </c>
       <c r="F88">
         <v>86</v>
@@ -6585,7 +6558,7 @@
         <v>901</v>
       </c>
       <c r="E89" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F89">
         <v>83</v>
@@ -6605,7 +6578,7 @@
         <v>901</v>
       </c>
       <c r="E90" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F90">
         <v>83</v>
@@ -6625,7 +6598,7 @@
         <v>901</v>
       </c>
       <c r="E91" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F91">
         <v>83</v>
@@ -6645,7 +6618,7 @@
         <v>901</v>
       </c>
       <c r="E92" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F92">
         <v>80</v>
@@ -6665,7 +6638,7 @@
         <v>901</v>
       </c>
       <c r="E93" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F93">
         <v>90</v>
@@ -6685,7 +6658,7 @@
         <v>901</v>
       </c>
       <c r="E94" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F94">
         <v>83</v>
@@ -6705,7 +6678,7 @@
         <v>901</v>
       </c>
       <c r="E95" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F95">
         <v>75</v>
@@ -6725,7 +6698,7 @@
         <v>901</v>
       </c>
       <c r="E96" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F96">
         <v>86</v>
@@ -6745,7 +6718,7 @@
         <v>901</v>
       </c>
       <c r="E97" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F97">
         <v>48</v>
@@ -6765,7 +6738,7 @@
         <v>901</v>
       </c>
       <c r="E98" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F98">
         <v>80</v>
@@ -6785,7 +6758,7 @@
         <v>901</v>
       </c>
       <c r="E99" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F99">
         <v>79</v>
@@ -6805,7 +6778,7 @@
         <v>901</v>
       </c>
       <c r="E100" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F100">
         <v>85</v>
@@ -6825,7 +6798,7 @@
         <v>901</v>
       </c>
       <c r="E101" t="s">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="F101">
         <v>86</v>
@@ -6845,7 +6818,7 @@
         <v>901</v>
       </c>
       <c r="E102" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F102">
         <v>67</v>
@@ -6865,7 +6838,7 @@
         <v>901</v>
       </c>
       <c r="E103" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F103">
         <v>65</v>
@@ -6885,7 +6858,7 @@
         <v>901</v>
       </c>
       <c r="E104" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F104">
         <v>50</v>
@@ -6905,7 +6878,7 @@
         <v>901</v>
       </c>
       <c r="E105" t="s">
-        <v>1003</v>
+        <v>955</v>
       </c>
       <c r="F105">
         <v>85</v>
@@ -6945,7 +6918,7 @@
         <v>901</v>
       </c>
       <c r="E107" t="s">
-        <v>1004</v>
+        <v>943</v>
       </c>
       <c r="F107">
         <v>88</v>
@@ -6965,7 +6938,7 @@
         <v>901</v>
       </c>
       <c r="E108" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F108">
         <v>83</v>
@@ -6985,7 +6958,7 @@
         <v>901</v>
       </c>
       <c r="E109" t="s">
-        <v>1006</v>
+        <v>956</v>
       </c>
       <c r="F109">
         <v>89</v>
@@ -7005,7 +6978,7 @@
         <v>901</v>
       </c>
       <c r="E110" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="F110">
         <v>80</v>
@@ -7025,7 +6998,7 @@
         <v>901</v>
       </c>
       <c r="E111" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F111">
         <v>67</v>
@@ -7045,7 +7018,7 @@
         <v>901</v>
       </c>
       <c r="E112" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F112">
         <v>62</v>
@@ -7065,7 +7038,7 @@
         <v>901</v>
       </c>
       <c r="E113" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F113">
         <v>50</v>
@@ -7085,7 +7058,7 @@
         <v>901</v>
       </c>
       <c r="E114" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="F114">
         <v>51</v>
@@ -7105,7 +7078,7 @@
         <v>901</v>
       </c>
       <c r="E115" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="F115">
         <v>47</v>
@@ -7125,7 +7098,7 @@
         <v>901</v>
       </c>
       <c r="E116" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="F116">
         <v>80</v>
@@ -7145,7 +7118,7 @@
         <v>901</v>
       </c>
       <c r="E117" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F117">
         <v>83</v>
@@ -7165,7 +7138,7 @@
         <v>901</v>
       </c>
       <c r="E118" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F118">
         <v>64</v>
@@ -7185,7 +7158,7 @@
         <v>901</v>
       </c>
       <c r="E119" t="s">
-        <v>1016</v>
+        <v>961</v>
       </c>
       <c r="F119">
         <v>83</v>
@@ -7205,7 +7178,7 @@
         <v>901</v>
       </c>
       <c r="E120" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="F120">
         <v>80</v>
@@ -7225,7 +7198,7 @@
         <v>901</v>
       </c>
       <c r="E121" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="F121">
         <v>38</v>
@@ -7245,7 +7218,7 @@
         <v>901</v>
       </c>
       <c r="E122" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="F122">
         <v>67</v>
@@ -7265,7 +7238,7 @@
         <v>901</v>
       </c>
       <c r="E123" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F123">
         <v>75</v>
@@ -7285,7 +7258,7 @@
         <v>901</v>
       </c>
       <c r="E124" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F124">
         <v>80</v>
@@ -7305,7 +7278,7 @@
         <v>901</v>
       </c>
       <c r="E125" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -7325,7 +7298,7 @@
         <v>901</v>
       </c>
       <c r="E126" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="F126">
         <v>88</v>
@@ -7345,7 +7318,7 @@
         <v>901</v>
       </c>
       <c r="E127" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F127">
         <v>85</v>
@@ -7365,7 +7338,7 @@
         <v>901</v>
       </c>
       <c r="E128" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="F128">
         <v>82</v>
@@ -7385,7 +7358,7 @@
         <v>901</v>
       </c>
       <c r="E129" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F129">
         <v>69</v>
@@ -7405,7 +7378,7 @@
         <v>901</v>
       </c>
       <c r="E130" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="F130">
         <v>62</v>
@@ -7425,7 +7398,7 @@
         <v>901</v>
       </c>
       <c r="E131" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="F131">
         <v>88</v>
@@ -7465,7 +7438,7 @@
         <v>901</v>
       </c>
       <c r="E133" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="F133">
         <v>85</v>
@@ -7485,7 +7458,7 @@
         <v>901</v>
       </c>
       <c r="E134" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="F134">
         <v>89</v>
@@ -7505,7 +7478,7 @@
         <v>901</v>
       </c>
       <c r="E135" t="s">
-        <v>1029</v>
+        <v>991</v>
       </c>
       <c r="F135">
         <v>86</v>
@@ -7525,7 +7498,7 @@
         <v>902</v>
       </c>
       <c r="E136" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -7545,7 +7518,7 @@
         <v>902</v>
       </c>
       <c r="E137" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -7565,7 +7538,7 @@
         <v>902</v>
       </c>
       <c r="E138" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -7585,7 +7558,7 @@
         <v>902</v>
       </c>
       <c r="E139" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -7605,7 +7578,7 @@
         <v>902</v>
       </c>
       <c r="E140" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -7625,7 +7598,7 @@
         <v>902</v>
       </c>
       <c r="E141" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -7645,7 +7618,7 @@
         <v>902</v>
       </c>
       <c r="E142" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -7665,7 +7638,7 @@
         <v>902</v>
       </c>
       <c r="E143" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -7685,7 +7658,7 @@
         <v>902</v>
       </c>
       <c r="E144" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -7705,7 +7678,7 @@
         <v>902</v>
       </c>
       <c r="E145" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -7725,7 +7698,7 @@
         <v>902</v>
       </c>
       <c r="E146" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -7745,7 +7718,7 @@
         <v>902</v>
       </c>
       <c r="E147" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -7765,7 +7738,7 @@
         <v>902</v>
       </c>
       <c r="E148" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -7785,7 +7758,7 @@
         <v>902</v>
       </c>
       <c r="E149" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -7805,7 +7778,7 @@
         <v>902</v>
       </c>
       <c r="E150" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -7825,7 +7798,7 @@
         <v>902</v>
       </c>
       <c r="E151" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -7845,7 +7818,7 @@
         <v>902</v>
       </c>
       <c r="E152" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -7865,7 +7838,7 @@
         <v>902</v>
       </c>
       <c r="E153" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -7885,7 +7858,7 @@
         <v>902</v>
       </c>
       <c r="E154" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7905,7 +7878,7 @@
         <v>902</v>
       </c>
       <c r="E155" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7925,7 +7898,7 @@
         <v>902</v>
       </c>
       <c r="E156" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7945,7 +7918,7 @@
         <v>902</v>
       </c>
       <c r="E157" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7965,7 +7938,7 @@
         <v>902</v>
       </c>
       <c r="E158" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -7985,7 +7958,7 @@
         <v>902</v>
       </c>
       <c r="E159" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -8005,7 +7978,7 @@
         <v>902</v>
       </c>
       <c r="E160" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -8025,7 +7998,7 @@
         <v>902</v>
       </c>
       <c r="E161" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -8045,7 +8018,7 @@
         <v>902</v>
       </c>
       <c r="E162" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -8065,7 +8038,7 @@
         <v>902</v>
       </c>
       <c r="E163" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -8085,7 +8058,7 @@
         <v>902</v>
       </c>
       <c r="E164" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -8105,7 +8078,7 @@
         <v>902</v>
       </c>
       <c r="E165" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -8125,7 +8098,7 @@
         <v>902</v>
       </c>
       <c r="E166" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -8145,7 +8118,7 @@
         <v>902</v>
       </c>
       <c r="E167" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -8165,7 +8138,7 @@
         <v>902</v>
       </c>
       <c r="E168" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -8185,7 +8158,7 @@
         <v>902</v>
       </c>
       <c r="E169" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -8205,7 +8178,7 @@
         <v>902</v>
       </c>
       <c r="E170" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -8225,7 +8198,7 @@
         <v>902</v>
       </c>
       <c r="E171" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -8245,7 +8218,7 @@
         <v>902</v>
       </c>
       <c r="E172" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -8265,7 +8238,7 @@
         <v>902</v>
       </c>
       <c r="E173" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -8285,7 +8258,7 @@
         <v>902</v>
       </c>
       <c r="E174" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -8305,7 +8278,7 @@
         <v>902</v>
       </c>
       <c r="E175" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -8325,7 +8298,7 @@
         <v>902</v>
       </c>
       <c r="E176" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -8345,7 +8318,7 @@
         <v>902</v>
       </c>
       <c r="E177" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -8365,7 +8338,7 @@
         <v>902</v>
       </c>
       <c r="E178" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -8385,7 +8358,7 @@
         <v>902</v>
       </c>
       <c r="E179" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -8405,7 +8378,7 @@
         <v>902</v>
       </c>
       <c r="E180" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -8425,7 +8398,7 @@
         <v>902</v>
       </c>
       <c r="E181" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -8445,7 +8418,7 @@
         <v>902</v>
       </c>
       <c r="E182" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8465,7 +8438,7 @@
         <v>902</v>
       </c>
       <c r="E183" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -8485,7 +8458,7 @@
         <v>902</v>
       </c>
       <c r="E184" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -8505,7 +8478,7 @@
         <v>902</v>
       </c>
       <c r="E185" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -8525,7 +8498,7 @@
         <v>902</v>
       </c>
       <c r="E186" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -8545,7 +8518,7 @@
         <v>902</v>
       </c>
       <c r="E187" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -8565,7 +8538,7 @@
         <v>902</v>
       </c>
       <c r="E188" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -8585,7 +8558,7 @@
         <v>902</v>
       </c>
       <c r="E189" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -8605,7 +8578,7 @@
         <v>902</v>
       </c>
       <c r="E190" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -8625,7 +8598,7 @@
         <v>902</v>
       </c>
       <c r="E191" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -8645,7 +8618,7 @@
         <v>902</v>
       </c>
       <c r="E192" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -8665,7 +8638,7 @@
         <v>902</v>
       </c>
       <c r="E193" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -8685,7 +8658,7 @@
         <v>902</v>
       </c>
       <c r="E194" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -8705,7 +8678,7 @@
         <v>902</v>
       </c>
       <c r="E195" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -8725,7 +8698,7 @@
         <v>902</v>
       </c>
       <c r="E196" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -8745,7 +8718,7 @@
         <v>902</v>
       </c>
       <c r="E197" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -8765,7 +8738,7 @@
         <v>902</v>
       </c>
       <c r="E198" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -8785,7 +8758,7 @@
         <v>902</v>
       </c>
       <c r="E199" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -8805,7 +8778,7 @@
         <v>902</v>
       </c>
       <c r="E200" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -8825,7 +8798,7 @@
         <v>902</v>
       </c>
       <c r="E201" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -8845,7 +8818,7 @@
         <v>902</v>
       </c>
       <c r="E202" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -8865,7 +8838,7 @@
         <v>902</v>
       </c>
       <c r="E203" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -8885,7 +8858,7 @@
         <v>902</v>
       </c>
       <c r="E204" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -8905,7 +8878,7 @@
         <v>902</v>
       </c>
       <c r="E205" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -8925,7 +8898,7 @@
         <v>902</v>
       </c>
       <c r="E206" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -8945,7 +8918,7 @@
         <v>902</v>
       </c>
       <c r="E207" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -8965,7 +8938,7 @@
         <v>902</v>
       </c>
       <c r="E208" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -8985,7 +8958,7 @@
         <v>902</v>
       </c>
       <c r="E209" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -9005,7 +8978,7 @@
         <v>902</v>
       </c>
       <c r="E210" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -9025,7 +8998,7 @@
         <v>902</v>
       </c>
       <c r="E211" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -9045,7 +9018,7 @@
         <v>902</v>
       </c>
       <c r="E212" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -9065,7 +9038,7 @@
         <v>902</v>
       </c>
       <c r="E213" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -9085,7 +9058,7 @@
         <v>902</v>
       </c>
       <c r="E214" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -9105,7 +9078,7 @@
         <v>902</v>
       </c>
       <c r="E215" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -9125,7 +9098,7 @@
         <v>902</v>
       </c>
       <c r="E216" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -9145,7 +9118,7 @@
         <v>902</v>
       </c>
       <c r="E217" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -9165,7 +9138,7 @@
         <v>902</v>
       </c>
       <c r="E218" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -9185,7 +9158,7 @@
         <v>902</v>
       </c>
       <c r="E219" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -9205,7 +9178,7 @@
         <v>902</v>
       </c>
       <c r="E220" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -9225,7 +9198,7 @@
         <v>902</v>
       </c>
       <c r="E221" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -9245,7 +9218,7 @@
         <v>902</v>
       </c>
       <c r="E222" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -9265,7 +9238,7 @@
         <v>902</v>
       </c>
       <c r="E223" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -9285,7 +9258,7 @@
         <v>902</v>
       </c>
       <c r="E224" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -9305,7 +9278,7 @@
         <v>902</v>
       </c>
       <c r="E225" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -9325,7 +9298,7 @@
         <v>902</v>
       </c>
       <c r="E226" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -9345,7 +9318,7 @@
         <v>902</v>
       </c>
       <c r="E227" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -9365,7 +9338,7 @@
         <v>902</v>
       </c>
       <c r="E228" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -9385,7 +9358,7 @@
         <v>902</v>
       </c>
       <c r="E229" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -9405,7 +9378,7 @@
         <v>902</v>
       </c>
       <c r="E230" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -9425,7 +9398,7 @@
         <v>902</v>
       </c>
       <c r="E231" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -9445,7 +9418,7 @@
         <v>902</v>
       </c>
       <c r="E232" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -9465,7 +9438,7 @@
         <v>902</v>
       </c>
       <c r="E233" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -9485,7 +9458,7 @@
         <v>902</v>
       </c>
       <c r="E234" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -9505,7 +9478,7 @@
         <v>902</v>
       </c>
       <c r="E235" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -9525,7 +9498,7 @@
         <v>902</v>
       </c>
       <c r="E236" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -9545,7 +9518,7 @@
         <v>902</v>
       </c>
       <c r="E237" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -9565,7 +9538,7 @@
         <v>902</v>
       </c>
       <c r="E238" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -9585,7 +9558,7 @@
         <v>902</v>
       </c>
       <c r="E239" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -9605,7 +9578,7 @@
         <v>902</v>
       </c>
       <c r="E240" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -9625,7 +9598,7 @@
         <v>902</v>
       </c>
       <c r="E241" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -9645,7 +9618,7 @@
         <v>902</v>
       </c>
       <c r="E242" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -9665,7 +9638,7 @@
         <v>902</v>
       </c>
       <c r="E243" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -9685,7 +9658,7 @@
         <v>902</v>
       </c>
       <c r="E244" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -9705,7 +9678,7 @@
         <v>902</v>
       </c>
       <c r="E245" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -9725,7 +9698,7 @@
         <v>902</v>
       </c>
       <c r="E246" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -9745,7 +9718,7 @@
         <v>902</v>
       </c>
       <c r="E247" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -9765,7 +9738,7 @@
         <v>902</v>
       </c>
       <c r="E248" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -9785,7 +9758,7 @@
         <v>902</v>
       </c>
       <c r="E249" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -9805,7 +9778,7 @@
         <v>902</v>
       </c>
       <c r="E250" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -9825,7 +9798,7 @@
         <v>902</v>
       </c>
       <c r="E251" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -9845,7 +9818,7 @@
         <v>902</v>
       </c>
       <c r="E252" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -9865,7 +9838,7 @@
         <v>902</v>
       </c>
       <c r="E253" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -9885,7 +9858,7 @@
         <v>902</v>
       </c>
       <c r="E254" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -9905,7 +9878,7 @@
         <v>902</v>
       </c>
       <c r="E255" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -9925,7 +9898,7 @@
         <v>902</v>
       </c>
       <c r="E256" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -9945,7 +9918,7 @@
         <v>902</v>
       </c>
       <c r="E257" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -9965,7 +9938,7 @@
         <v>902</v>
       </c>
       <c r="E258" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -9985,7 +9958,7 @@
         <v>902</v>
       </c>
       <c r="E259" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -10005,7 +9978,7 @@
         <v>902</v>
       </c>
       <c r="E260" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -10025,7 +9998,7 @@
         <v>902</v>
       </c>
       <c r="E261" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -10045,7 +10018,7 @@
         <v>902</v>
       </c>
       <c r="E262" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -10065,7 +10038,7 @@
         <v>902</v>
       </c>
       <c r="E263" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -10085,7 +10058,7 @@
         <v>902</v>
       </c>
       <c r="E264" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -10105,7 +10078,7 @@
         <v>902</v>
       </c>
       <c r="E265" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -10125,7 +10098,7 @@
         <v>902</v>
       </c>
       <c r="E266" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -10145,7 +10118,7 @@
         <v>902</v>
       </c>
       <c r="E267" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -10165,7 +10138,7 @@
         <v>902</v>
       </c>
       <c r="E268" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -10185,7 +10158,7 @@
         <v>902</v>
       </c>
       <c r="E269" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -10205,7 +10178,7 @@
         <v>902</v>
       </c>
       <c r="E270" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -10225,7 +10198,7 @@
         <v>902</v>
       </c>
       <c r="E271" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -10245,7 +10218,7 @@
         <v>902</v>
       </c>
       <c r="E272" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -10265,7 +10238,7 @@
         <v>902</v>
       </c>
       <c r="E273" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -10285,7 +10258,7 @@
         <v>902</v>
       </c>
       <c r="E274" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -10305,7 +10278,7 @@
         <v>902</v>
       </c>
       <c r="E275" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -10325,7 +10298,7 @@
         <v>902</v>
       </c>
       <c r="E276" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -10345,7 +10318,7 @@
         <v>902</v>
       </c>
       <c r="E277" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -10365,7 +10338,7 @@
         <v>902</v>
       </c>
       <c r="E278" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -10385,7 +10358,7 @@
         <v>902</v>
       </c>
       <c r="E279" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -10405,7 +10378,7 @@
         <v>902</v>
       </c>
       <c r="E280" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -10425,7 +10398,7 @@
         <v>902</v>
       </c>
       <c r="E281" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -10445,7 +10418,7 @@
         <v>902</v>
       </c>
       <c r="E282" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -10465,7 +10438,7 @@
         <v>902</v>
       </c>
       <c r="E283" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -10485,7 +10458,7 @@
         <v>902</v>
       </c>
       <c r="E284" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -10505,7 +10478,7 @@
         <v>902</v>
       </c>
       <c r="E285" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -10525,7 +10498,7 @@
         <v>902</v>
       </c>
       <c r="E286" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -10545,7 +10518,7 @@
         <v>902</v>
       </c>
       <c r="E287" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -10565,7 +10538,7 @@
         <v>902</v>
       </c>
       <c r="E288" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -10585,7 +10558,7 @@
         <v>902</v>
       </c>
       <c r="E289" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -10605,7 +10578,7 @@
         <v>902</v>
       </c>
       <c r="E290" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -10625,7 +10598,7 @@
         <v>902</v>
       </c>
       <c r="E291" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -10645,7 +10618,7 @@
         <v>902</v>
       </c>
       <c r="E292" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -10665,7 +10638,7 @@
         <v>902</v>
       </c>
       <c r="E293" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -10685,7 +10658,7 @@
         <v>902</v>
       </c>
       <c r="E294" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -10705,7 +10678,7 @@
         <v>902</v>
       </c>
       <c r="E295" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -10725,7 +10698,7 @@
         <v>902</v>
       </c>
       <c r="E296" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -10745,7 +10718,7 @@
         <v>902</v>
       </c>
       <c r="E297" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -10765,7 +10738,7 @@
         <v>902</v>
       </c>
       <c r="E298" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -10785,7 +10758,7 @@
         <v>903</v>
       </c>
       <c r="E299" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -10805,7 +10778,7 @@
         <v>903</v>
       </c>
       <c r="E300" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -10825,7 +10798,7 @@
         <v>903</v>
       </c>
       <c r="E301" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -10845,7 +10818,7 @@
         <v>903</v>
       </c>
       <c r="E302" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -10865,7 +10838,7 @@
         <v>903</v>
       </c>
       <c r="E303" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -10885,7 +10858,7 @@
         <v>903</v>
       </c>
       <c r="E304" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -10905,7 +10878,7 @@
         <v>903</v>
       </c>
       <c r="E305" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -10925,7 +10898,7 @@
         <v>903</v>
       </c>
       <c r="E306" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -10945,7 +10918,7 @@
         <v>903</v>
       </c>
       <c r="E307" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -10965,7 +10938,7 @@
         <v>903</v>
       </c>
       <c r="E308" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -10985,7 +10958,7 @@
         <v>903</v>
       </c>
       <c r="E309" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -11005,7 +10978,7 @@
         <v>903</v>
       </c>
       <c r="E310" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -11025,7 +10998,7 @@
         <v>903</v>
       </c>
       <c r="E311" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -11045,7 +11018,7 @@
         <v>903</v>
       </c>
       <c r="E312" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -11065,7 +11038,7 @@
         <v>903</v>
       </c>
       <c r="E313" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -11085,7 +11058,7 @@
         <v>903</v>
       </c>
       <c r="E314" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -11105,7 +11078,7 @@
         <v>903</v>
       </c>
       <c r="E315" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -11125,7 +11098,7 @@
         <v>903</v>
       </c>
       <c r="E316" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -11145,7 +11118,7 @@
         <v>903</v>
       </c>
       <c r="E317" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -11165,7 +11138,7 @@
         <v>903</v>
       </c>
       <c r="E318" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -11185,7 +11158,7 @@
         <v>903</v>
       </c>
       <c r="E319" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -11205,7 +11178,7 @@
         <v>903</v>
       </c>
       <c r="E320" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -11225,7 +11198,7 @@
         <v>903</v>
       </c>
       <c r="E321" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -11245,7 +11218,7 @@
         <v>903</v>
       </c>
       <c r="E322" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -11265,7 +11238,7 @@
         <v>903</v>
       </c>
       <c r="E323" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -11285,7 +11258,7 @@
         <v>903</v>
       </c>
       <c r="E324" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -11305,7 +11278,7 @@
         <v>903</v>
       </c>
       <c r="E325" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -11325,7 +11298,7 @@
         <v>903</v>
       </c>
       <c r="E326" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -11345,7 +11318,7 @@
         <v>903</v>
       </c>
       <c r="E327" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -11365,7 +11338,7 @@
         <v>903</v>
       </c>
       <c r="E328" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -11385,7 +11358,7 @@
         <v>903</v>
       </c>
       <c r="E329" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -11405,7 +11378,7 @@
         <v>903</v>
       </c>
       <c r="E330" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -11425,7 +11398,7 @@
         <v>903</v>
       </c>
       <c r="E331" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -11445,7 +11418,7 @@
         <v>903</v>
       </c>
       <c r="E332" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -11465,7 +11438,7 @@
         <v>903</v>
       </c>
       <c r="E333" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -11485,7 +11458,7 @@
         <v>903</v>
       </c>
       <c r="E334" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -11505,7 +11478,7 @@
         <v>903</v>
       </c>
       <c r="E335" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -11525,7 +11498,7 @@
         <v>903</v>
       </c>
       <c r="E336" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -11545,7 +11518,7 @@
         <v>903</v>
       </c>
       <c r="E337" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -11565,7 +11538,7 @@
         <v>903</v>
       </c>
       <c r="E338" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -11585,7 +11558,7 @@
         <v>903</v>
       </c>
       <c r="E339" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -11605,7 +11578,7 @@
         <v>903</v>
       </c>
       <c r="E340" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -11625,7 +11598,7 @@
         <v>903</v>
       </c>
       <c r="E341" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -11645,7 +11618,7 @@
         <v>903</v>
       </c>
       <c r="E342" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -11665,7 +11638,7 @@
         <v>903</v>
       </c>
       <c r="E343" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -11685,7 +11658,7 @@
         <v>903</v>
       </c>
       <c r="E344" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -11705,7 +11678,7 @@
         <v>903</v>
       </c>
       <c r="E345" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -11725,7 +11698,7 @@
         <v>903</v>
       </c>
       <c r="E346" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -11745,7 +11718,7 @@
         <v>903</v>
       </c>
       <c r="E347" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -11765,7 +11738,7 @@
         <v>903</v>
       </c>
       <c r="E348" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -11785,7 +11758,7 @@
         <v>903</v>
       </c>
       <c r="E349" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -11805,7 +11778,7 @@
         <v>903</v>
       </c>
       <c r="E350" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -11825,7 +11798,7 @@
         <v>903</v>
       </c>
       <c r="E351" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -11845,7 +11818,7 @@
         <v>903</v>
       </c>
       <c r="E352" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -11865,7 +11838,7 @@
         <v>903</v>
       </c>
       <c r="E353" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -11885,7 +11858,7 @@
         <v>903</v>
       </c>
       <c r="E354" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -11905,7 +11878,7 @@
         <v>903</v>
       </c>
       <c r="E355" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -11925,7 +11898,7 @@
         <v>903</v>
       </c>
       <c r="E356" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -11945,7 +11918,7 @@
         <v>903</v>
       </c>
       <c r="E357" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -11965,7 +11938,7 @@
         <v>903</v>
       </c>
       <c r="E358" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -11985,7 +11958,7 @@
         <v>903</v>
       </c>
       <c r="E359" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -12005,7 +11978,7 @@
         <v>903</v>
       </c>
       <c r="E360" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -12025,7 +11998,7 @@
         <v>903</v>
       </c>
       <c r="E361" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -12045,7 +12018,7 @@
         <v>903</v>
       </c>
       <c r="E362" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -12065,7 +12038,7 @@
         <v>903</v>
       </c>
       <c r="E363" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -12085,7 +12058,7 @@
         <v>903</v>
       </c>
       <c r="E364" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -12105,7 +12078,7 @@
         <v>903</v>
       </c>
       <c r="E365" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -12125,7 +12098,7 @@
         <v>903</v>
       </c>
       <c r="E366" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -12145,7 +12118,7 @@
         <v>903</v>
       </c>
       <c r="E367" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -12165,7 +12138,7 @@
         <v>903</v>
       </c>
       <c r="E368" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -12185,7 +12158,7 @@
         <v>903</v>
       </c>
       <c r="E369" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -12205,7 +12178,7 @@
         <v>903</v>
       </c>
       <c r="E370" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -12225,7 +12198,7 @@
         <v>903</v>
       </c>
       <c r="E371" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -12245,7 +12218,7 @@
         <v>903</v>
       </c>
       <c r="E372" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -12265,7 +12238,7 @@
         <v>903</v>
       </c>
       <c r="E373" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -12285,7 +12258,7 @@
         <v>903</v>
       </c>
       <c r="E374" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -12305,7 +12278,7 @@
         <v>903</v>
       </c>
       <c r="E375" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -12325,7 +12298,7 @@
         <v>903</v>
       </c>
       <c r="E376" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -12345,7 +12318,7 @@
         <v>903</v>
       </c>
       <c r="E377" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -12365,7 +12338,7 @@
         <v>903</v>
       </c>
       <c r="E378" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -12385,7 +12358,7 @@
         <v>903</v>
       </c>
       <c r="E379" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -12405,7 +12378,7 @@
         <v>903</v>
       </c>
       <c r="E380" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -12425,7 +12398,7 @@
         <v>903</v>
       </c>
       <c r="E381" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -12445,7 +12418,7 @@
         <v>903</v>
       </c>
       <c r="E382" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -12465,7 +12438,7 @@
         <v>903</v>
       </c>
       <c r="E383" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -12485,7 +12458,7 @@
         <v>903</v>
       </c>
       <c r="E384" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -12505,7 +12478,7 @@
         <v>903</v>
       </c>
       <c r="E385" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -12525,7 +12498,7 @@
         <v>903</v>
       </c>
       <c r="E386" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -12545,7 +12518,7 @@
         <v>903</v>
       </c>
       <c r="E387" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -12565,7 +12538,7 @@
         <v>903</v>
       </c>
       <c r="E388" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -12585,7 +12558,7 @@
         <v>903</v>
       </c>
       <c r="E389" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -12605,7 +12578,7 @@
         <v>903</v>
       </c>
       <c r="E390" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -12625,7 +12598,7 @@
         <v>903</v>
       </c>
       <c r="E391" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -12645,7 +12618,7 @@
         <v>903</v>
       </c>
       <c r="E392" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -12665,7 +12638,7 @@
         <v>903</v>
       </c>
       <c r="E393" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -12685,7 +12658,7 @@
         <v>903</v>
       </c>
       <c r="E394" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -12705,7 +12678,7 @@
         <v>903</v>
       </c>
       <c r="E395" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -12725,7 +12698,7 @@
         <v>903</v>
       </c>
       <c r="E396" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -12745,7 +12718,7 @@
         <v>903</v>
       </c>
       <c r="E397" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -12765,7 +12738,7 @@
         <v>903</v>
       </c>
       <c r="E398" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -12785,7 +12758,7 @@
         <v>903</v>
       </c>
       <c r="E399" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -12805,7 +12778,7 @@
         <v>903</v>
       </c>
       <c r="E400" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -12825,7 +12798,7 @@
         <v>903</v>
       </c>
       <c r="E401" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -12845,7 +12818,7 @@
         <v>903</v>
       </c>
       <c r="E402" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -12865,7 +12838,7 @@
         <v>903</v>
       </c>
       <c r="E403" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -12885,7 +12858,7 @@
         <v>903</v>
       </c>
       <c r="E404" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -12905,7 +12878,7 @@
         <v>903</v>
       </c>
       <c r="E405" t="s">
-        <v>1055</v>
+        <v>1231</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -12925,7 +12898,7 @@
         <v>903</v>
       </c>
       <c r="E406" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -12945,7 +12918,7 @@
         <v>903</v>
       </c>
       <c r="E407" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -12965,7 +12938,7 @@
         <v>903</v>
       </c>
       <c r="E408" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -12985,7 +12958,7 @@
         <v>903</v>
       </c>
       <c r="E409" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -13005,7 +12978,7 @@
         <v>903</v>
       </c>
       <c r="E410" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -13025,7 +12998,7 @@
         <v>903</v>
       </c>
       <c r="E411" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -13045,7 +13018,7 @@
         <v>903</v>
       </c>
       <c r="E412" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -13065,7 +13038,7 @@
         <v>903</v>
       </c>
       <c r="E413" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -13085,7 +13058,7 @@
         <v>903</v>
       </c>
       <c r="E414" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -13105,7 +13078,7 @@
         <v>903</v>
       </c>
       <c r="E415" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -13125,7 +13098,7 @@
         <v>903</v>
       </c>
       <c r="E416" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -13145,7 +13118,7 @@
         <v>903</v>
       </c>
       <c r="E417" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -13165,7 +13138,7 @@
         <v>903</v>
       </c>
       <c r="E418" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -13185,7 +13158,7 @@
         <v>903</v>
       </c>
       <c r="E419" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -13205,7 +13178,7 @@
         <v>903</v>
       </c>
       <c r="E420" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -13225,7 +13198,7 @@
         <v>903</v>
       </c>
       <c r="E421" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -13245,7 +13218,7 @@
         <v>903</v>
       </c>
       <c r="E422" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -13265,7 +13238,7 @@
         <v>903</v>
       </c>
       <c r="E423" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -13285,7 +13258,7 @@
         <v>903</v>
       </c>
       <c r="E424" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -13305,7 +13278,7 @@
         <v>903</v>
       </c>
       <c r="E425" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -13325,7 +13298,7 @@
         <v>903</v>
       </c>
       <c r="E426" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -13345,7 +13318,7 @@
         <v>903</v>
       </c>
       <c r="E427" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -13365,7 +13338,7 @@
         <v>903</v>
       </c>
       <c r="E428" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -13385,7 +13358,7 @@
         <v>903</v>
       </c>
       <c r="E429" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -13405,7 +13378,7 @@
         <v>903</v>
       </c>
       <c r="E430" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -13425,7 +13398,7 @@
         <v>903</v>
       </c>
       <c r="E431" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -13445,7 +13418,7 @@
         <v>903</v>
       </c>
       <c r="E432" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -13465,7 +13438,7 @@
         <v>903</v>
       </c>
       <c r="E433" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -13485,7 +13458,7 @@
         <v>903</v>
       </c>
       <c r="E434" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -13505,7 +13478,7 @@
         <v>903</v>
       </c>
       <c r="E435" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -13525,7 +13498,7 @@
         <v>903</v>
       </c>
       <c r="E436" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -13545,7 +13518,7 @@
         <v>903</v>
       </c>
       <c r="E437" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -13565,7 +13538,7 @@
         <v>903</v>
       </c>
       <c r="E438" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -13585,7 +13558,7 @@
         <v>903</v>
       </c>
       <c r="E439" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -13605,7 +13578,7 @@
         <v>903</v>
       </c>
       <c r="E440" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -13625,7 +13598,7 @@
         <v>903</v>
       </c>
       <c r="E441" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -13645,7 +13618,7 @@
         <v>903</v>
       </c>
       <c r="E442" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -13665,7 +13638,7 @@
         <v>903</v>
       </c>
       <c r="E443" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="F443">
         <v>0</v>
@@ -13685,7 +13658,7 @@
         <v>903</v>
       </c>
       <c r="E444" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -13705,7 +13678,7 @@
         <v>903</v>
       </c>
       <c r="E445" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="F445">
         <v>0</v>
@@ -13725,7 +13698,7 @@
         <v>903</v>
       </c>
       <c r="E446" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -13745,7 +13718,7 @@
         <v>903</v>
       </c>
       <c r="E447" t="s">
-        <v>1290</v>
+        <v>1063</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -13765,7 +13738,7 @@
         <v>903</v>
       </c>
       <c r="E448" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -13785,7 +13758,7 @@
         <v>903</v>
       </c>
       <c r="E449" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="F449">
         <v>0</v>
@@ -13805,7 +13778,7 @@
         <v>903</v>
       </c>
       <c r="E450" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="F450">
         <v>0</v>
@@ -13825,7 +13798,7 @@
         <v>903</v>
       </c>
       <c r="E451" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="F451">
         <v>0</v>
@@ -13845,7 +13818,7 @@
         <v>903</v>
       </c>
       <c r="E452" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -13865,7 +13838,7 @@
         <v>903</v>
       </c>
       <c r="E453" t="s">
-        <v>1294</v>
+        <v>973</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -13885,7 +13858,7 @@
         <v>903</v>
       </c>
       <c r="E454" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -13905,7 +13878,7 @@
         <v>903</v>
       </c>
       <c r="E455" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="F455">
         <v>0</v>
@@ -13925,7 +13898,7 @@
         <v>903</v>
       </c>
       <c r="E456" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -13945,7 +13918,7 @@
         <v>903</v>
       </c>
       <c r="E457" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="F457">
         <v>0</v>
@@ -13965,7 +13938,7 @@
         <v>903</v>
       </c>
       <c r="E458" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -13985,7 +13958,7 @@
         <v>903</v>
       </c>
       <c r="E459" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -14005,7 +13978,7 @@
         <v>903</v>
       </c>
       <c r="E460" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -14025,7 +13998,7 @@
         <v>903</v>
       </c>
       <c r="E461" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -14045,7 +14018,7 @@
         <v>903</v>
       </c>
       <c r="E462" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="F462">
         <v>0</v>
@@ -14065,7 +14038,7 @@
         <v>903</v>
       </c>
       <c r="E463" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -14085,7 +14058,7 @@
         <v>903</v>
       </c>
       <c r="E464" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -14105,7 +14078,7 @@
         <v>903</v>
       </c>
       <c r="E465" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="F465">
         <v>0</v>
@@ -14125,7 +14098,7 @@
         <v>903</v>
       </c>
       <c r="E466" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -14145,7 +14118,7 @@
         <v>903</v>
       </c>
       <c r="E467" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -14165,7 +14138,7 @@
         <v>903</v>
       </c>
       <c r="E468" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -14185,7 +14158,7 @@
         <v>903</v>
       </c>
       <c r="E469" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -14205,7 +14178,7 @@
         <v>903</v>
       </c>
       <c r="E470" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -14225,7 +14198,7 @@
         <v>903</v>
       </c>
       <c r="E471" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="F471">
         <v>0</v>
@@ -14245,7 +14218,7 @@
         <v>903</v>
       </c>
       <c r="E472" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -14265,7 +14238,7 @@
         <v>903</v>
       </c>
       <c r="E473" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="F473">
         <v>0</v>
@@ -14285,7 +14258,7 @@
         <v>903</v>
       </c>
       <c r="E474" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="F474">
         <v>0</v>
@@ -14305,7 +14278,7 @@
         <v>903</v>
       </c>
       <c r="E475" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="F475">
         <v>0</v>
@@ -14325,7 +14298,7 @@
         <v>903</v>
       </c>
       <c r="E476" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -14345,7 +14318,7 @@
         <v>903</v>
       </c>
       <c r="E477" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -14365,7 +14338,7 @@
         <v>903</v>
       </c>
       <c r="E478" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="F478">
         <v>0</v>
@@ -14385,7 +14358,7 @@
         <v>903</v>
       </c>
       <c r="E479" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F479">
         <v>0</v>
@@ -14405,7 +14378,7 @@
         <v>903</v>
       </c>
       <c r="E480" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F480">
         <v>0</v>
@@ -14425,7 +14398,7 @@
         <v>903</v>
       </c>
       <c r="E481" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="F481">
         <v>0</v>
@@ -14445,7 +14418,7 @@
         <v>903</v>
       </c>
       <c r="E482" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -14465,7 +14438,7 @@
         <v>903</v>
       </c>
       <c r="E483" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="F483">
         <v>0</v>
@@ -14485,7 +14458,7 @@
         <v>903</v>
       </c>
       <c r="E484" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F484">
         <v>0</v>
@@ -14505,7 +14478,7 @@
         <v>903</v>
       </c>
       <c r="E485" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -14525,7 +14498,7 @@
         <v>903</v>
       </c>
       <c r="E486" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="F486">
         <v>0</v>
@@ -14545,7 +14518,7 @@
         <v>903</v>
       </c>
       <c r="E487" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -14565,7 +14538,7 @@
         <v>903</v>
       </c>
       <c r="E488" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -14585,7 +14558,7 @@
         <v>903</v>
       </c>
       <c r="E489" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -14605,7 +14578,7 @@
         <v>903</v>
       </c>
       <c r="E490" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -14625,7 +14598,7 @@
         <v>903</v>
       </c>
       <c r="E491" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -14645,7 +14618,7 @@
         <v>903</v>
       </c>
       <c r="E492" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -14665,7 +14638,7 @@
         <v>903</v>
       </c>
       <c r="E493" t="s">
-        <v>1219</v>
+        <v>1302</v>
       </c>
       <c r="F493">
         <v>0</v>
@@ -14685,7 +14658,7 @@
         <v>903</v>
       </c>
       <c r="E494" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -14705,7 +14678,7 @@
         <v>903</v>
       </c>
       <c r="E495" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="F495">
         <v>0</v>
@@ -14725,7 +14698,7 @@
         <v>903</v>
       </c>
       <c r="E496" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -14745,7 +14718,7 @@
         <v>903</v>
       </c>
       <c r="E497" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -14765,7 +14738,7 @@
         <v>903</v>
       </c>
       <c r="E498" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="F498">
         <v>0</v>
@@ -14785,7 +14758,7 @@
         <v>903</v>
       </c>
       <c r="E499" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -14805,7 +14778,7 @@
         <v>903</v>
       </c>
       <c r="E500" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -14825,7 +14798,7 @@
         <v>903</v>
       </c>
       <c r="E501" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -14845,7 +14818,7 @@
         <v>903</v>
       </c>
       <c r="E502" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -14865,7 +14838,7 @@
         <v>903</v>
       </c>
       <c r="E503" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="F503">
         <v>0</v>
@@ -14885,7 +14858,7 @@
         <v>903</v>
       </c>
       <c r="E504" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -14905,7 +14878,7 @@
         <v>903</v>
       </c>
       <c r="E505" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -14925,7 +14898,7 @@
         <v>903</v>
       </c>
       <c r="E506" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="F506">
         <v>0</v>
@@ -14945,7 +14918,7 @@
         <v>903</v>
       </c>
       <c r="E507" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="F507">
         <v>0</v>
@@ -14965,7 +14938,7 @@
         <v>903</v>
       </c>
       <c r="E508" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="F508">
         <v>0</v>
@@ -14985,7 +14958,7 @@
         <v>903</v>
       </c>
       <c r="E509" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="F509">
         <v>0</v>
@@ -15005,7 +14978,7 @@
         <v>903</v>
       </c>
       <c r="E510" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="F510">
         <v>0</v>
@@ -15025,7 +14998,7 @@
         <v>903</v>
       </c>
       <c r="E511" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="F511">
         <v>0</v>
@@ -15045,7 +15018,7 @@
         <v>903</v>
       </c>
       <c r="E512" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F512">
         <v>0</v>
@@ -15065,7 +15038,7 @@
         <v>903</v>
       </c>
       <c r="E513" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="F513">
         <v>0</v>
@@ -15085,7 +15058,7 @@
         <v>903</v>
       </c>
       <c r="E514" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="F514">
         <v>0</v>
@@ -15105,7 +15078,7 @@
         <v>903</v>
       </c>
       <c r="E515" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -15125,7 +15098,7 @@
         <v>903</v>
       </c>
       <c r="E516" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -15145,7 +15118,7 @@
         <v>903</v>
       </c>
       <c r="E517" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="F517">
         <v>0</v>
@@ -15165,7 +15138,7 @@
         <v>903</v>
       </c>
       <c r="E518" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="F518">
         <v>0</v>
@@ -15185,7 +15158,7 @@
         <v>903</v>
       </c>
       <c r="E519" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="F519">
         <v>0</v>
@@ -15205,7 +15178,7 @@
         <v>903</v>
       </c>
       <c r="E520" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="F520">
         <v>0</v>
@@ -15225,7 +15198,7 @@
         <v>903</v>
       </c>
       <c r="E521" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="F521">
         <v>0</v>
@@ -15245,7 +15218,7 @@
         <v>903</v>
       </c>
       <c r="E522" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="F522">
         <v>0</v>
@@ -15265,7 +15238,7 @@
         <v>903</v>
       </c>
       <c r="E523" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="F523">
         <v>0</v>
@@ -15285,7 +15258,7 @@
         <v>903</v>
       </c>
       <c r="E524" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="F524">
         <v>0</v>
@@ -15305,7 +15278,7 @@
         <v>903</v>
       </c>
       <c r="E525" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="F525">
         <v>0</v>
@@ -15325,7 +15298,7 @@
         <v>903</v>
       </c>
       <c r="E526" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="F526">
         <v>0</v>
@@ -15345,7 +15318,7 @@
         <v>903</v>
       </c>
       <c r="E527" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="F527">
         <v>0</v>
@@ -15365,7 +15338,7 @@
         <v>903</v>
       </c>
       <c r="E528" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="F528">
         <v>0</v>
@@ -15385,7 +15358,7 @@
         <v>903</v>
       </c>
       <c r="E529" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="F529">
         <v>0</v>
@@ -15405,7 +15378,7 @@
         <v>903</v>
       </c>
       <c r="E530" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="F530">
         <v>0</v>
@@ -15425,7 +15398,7 @@
         <v>903</v>
       </c>
       <c r="E531" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="F531">
         <v>0</v>
@@ -15445,7 +15418,7 @@
         <v>903</v>
       </c>
       <c r="E532" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="F532">
         <v>0</v>
@@ -15465,7 +15438,7 @@
         <v>903</v>
       </c>
       <c r="E533" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="F533">
         <v>0</v>
@@ -15485,7 +15458,7 @@
         <v>903</v>
       </c>
       <c r="E534" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -15505,7 +15478,7 @@
         <v>903</v>
       </c>
       <c r="E535" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="F535">
         <v>0</v>
@@ -15525,7 +15498,7 @@
         <v>903</v>
       </c>
       <c r="E536" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="F536">
         <v>0</v>
@@ -15545,7 +15518,7 @@
         <v>903</v>
       </c>
       <c r="E537" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="F537">
         <v>0</v>
@@ -15565,7 +15538,7 @@
         <v>904</v>
       </c>
       <c r="E538" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="F538">
         <v>0</v>
@@ -15585,7 +15558,7 @@
         <v>904</v>
       </c>
       <c r="E539" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="F539">
         <v>0</v>
@@ -15605,7 +15578,7 @@
         <v>904</v>
       </c>
       <c r="E540" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="F540">
         <v>0</v>
@@ -15625,7 +15598,7 @@
         <v>904</v>
       </c>
       <c r="E541" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="F541">
         <v>0</v>
@@ -15645,7 +15618,7 @@
         <v>904</v>
       </c>
       <c r="E542" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="F542">
         <v>0</v>
@@ -15665,7 +15638,7 @@
         <v>904</v>
       </c>
       <c r="E543" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="F543">
         <v>0</v>
@@ -15685,7 +15658,7 @@
         <v>904</v>
       </c>
       <c r="E544" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="F544">
         <v>0</v>
@@ -15705,7 +15678,7 @@
         <v>904</v>
       </c>
       <c r="E545" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="F545">
         <v>0</v>
@@ -15725,7 +15698,7 @@
         <v>904</v>
       </c>
       <c r="E546" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="F546">
         <v>0</v>
@@ -15745,7 +15718,7 @@
         <v>904</v>
       </c>
       <c r="E547" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="F547">
         <v>0</v>
@@ -15765,7 +15738,7 @@
         <v>904</v>
       </c>
       <c r="E548" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="F548">
         <v>0</v>
@@ -15785,7 +15758,7 @@
         <v>904</v>
       </c>
       <c r="E549" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="F549">
         <v>0</v>
@@ -15805,7 +15778,7 @@
         <v>904</v>
       </c>
       <c r="E550" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="F550">
         <v>0</v>
@@ -15825,7 +15798,7 @@
         <v>904</v>
       </c>
       <c r="E551" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -15845,7 +15818,7 @@
         <v>904</v>
       </c>
       <c r="E552" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -15865,7 +15838,7 @@
         <v>904</v>
       </c>
       <c r="E553" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="F553">
         <v>0</v>
@@ -15885,7 +15858,7 @@
         <v>904</v>
       </c>
       <c r="E554" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="F554">
         <v>0</v>
@@ -15905,7 +15878,7 @@
         <v>904</v>
       </c>
       <c r="E555" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -15925,7 +15898,7 @@
         <v>904</v>
       </c>
       <c r="E556" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="F556">
         <v>0</v>
@@ -15945,7 +15918,7 @@
         <v>904</v>
       </c>
       <c r="E557" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -15965,7 +15938,7 @@
         <v>904</v>
       </c>
       <c r="E558" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="F558">
         <v>0</v>
@@ -15985,7 +15958,7 @@
         <v>904</v>
       </c>
       <c r="E559" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="F559">
         <v>0</v>
@@ -16005,7 +15978,7 @@
         <v>904</v>
       </c>
       <c r="E560" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="F560">
         <v>0</v>
@@ -16025,7 +15998,7 @@
         <v>904</v>
       </c>
       <c r="E561" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="F561">
         <v>0</v>
@@ -16045,7 +16018,7 @@
         <v>904</v>
       </c>
       <c r="E562" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -16065,7 +16038,7 @@
         <v>904</v>
       </c>
       <c r="E563" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="F563">
         <v>0</v>
@@ -16085,7 +16058,7 @@
         <v>904</v>
       </c>
       <c r="E564" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="F564">
         <v>0</v>
@@ -16105,7 +16078,7 @@
         <v>904</v>
       </c>
       <c r="E565" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -16125,7 +16098,7 @@
         <v>904</v>
       </c>
       <c r="E566" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="F566">
         <v>0</v>
@@ -16145,7 +16118,7 @@
         <v>904</v>
       </c>
       <c r="E567" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -16165,7 +16138,7 @@
         <v>904</v>
       </c>
       <c r="E568" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -16205,7 +16178,7 @@
         <v>904</v>
       </c>
       <c r="E570" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -16225,7 +16198,7 @@
         <v>904</v>
       </c>
       <c r="E571" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -16245,7 +16218,7 @@
         <v>904</v>
       </c>
       <c r="E572" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -16265,7 +16238,7 @@
         <v>904</v>
       </c>
       <c r="E573" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="F573">
         <v>0</v>
@@ -16285,7 +16258,7 @@
         <v>904</v>
       </c>
       <c r="E574" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -16305,7 +16278,7 @@
         <v>904</v>
       </c>
       <c r="E575" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -16325,7 +16298,7 @@
         <v>904</v>
       </c>
       <c r="E576" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="F576">
         <v>0</v>
@@ -16345,7 +16318,7 @@
         <v>904</v>
       </c>
       <c r="E577" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -16365,7 +16338,7 @@
         <v>904</v>
       </c>
       <c r="E578" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="F578">
         <v>0</v>
@@ -16385,7 +16358,7 @@
         <v>904</v>
       </c>
       <c r="E579" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="F579">
         <v>0</v>
@@ -16405,7 +16378,7 @@
         <v>904</v>
       </c>
       <c r="E580" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="F580">
         <v>0</v>
@@ -16425,7 +16398,7 @@
         <v>904</v>
       </c>
       <c r="E581" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="F581">
         <v>0</v>
@@ -16445,7 +16418,7 @@
         <v>904</v>
       </c>
       <c r="E582" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -16465,7 +16438,7 @@
         <v>904</v>
       </c>
       <c r="E583" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="F583">
         <v>0</v>
@@ -16485,7 +16458,7 @@
         <v>904</v>
       </c>
       <c r="E584" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="F584">
         <v>0</v>
@@ -16505,7 +16478,7 @@
         <v>904</v>
       </c>
       <c r="E585" t="s">
-        <v>1294</v>
+        <v>1360</v>
       </c>
       <c r="F585">
         <v>0</v>
@@ -16525,7 +16498,7 @@
         <v>904</v>
       </c>
       <c r="E586" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="F586">
         <v>0</v>
@@ -16545,7 +16518,7 @@
         <v>904</v>
       </c>
       <c r="E587" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="F587">
         <v>0</v>
@@ -16565,7 +16538,7 @@
         <v>904</v>
       </c>
       <c r="E588" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="F588">
         <v>0</v>
@@ -16585,7 +16558,7 @@
         <v>904</v>
       </c>
       <c r="E589" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F589">
         <v>0</v>
@@ -16605,7 +16578,7 @@
         <v>904</v>
       </c>
       <c r="E590" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="F590">
         <v>0</v>
@@ -16625,7 +16598,7 @@
         <v>904</v>
       </c>
       <c r="E591" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="F591">
         <v>0</v>
@@ -16645,7 +16618,7 @@
         <v>904</v>
       </c>
       <c r="E592" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -16665,7 +16638,7 @@
         <v>904</v>
       </c>
       <c r="E593" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="F593">
         <v>0</v>
@@ -16685,7 +16658,7 @@
         <v>904</v>
       </c>
       <c r="E594" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -16705,7 +16678,7 @@
         <v>904</v>
       </c>
       <c r="E595" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="F595">
         <v>0</v>
@@ -16725,7 +16698,7 @@
         <v>904</v>
       </c>
       <c r="E596" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="F596">
         <v>0</v>
@@ -16745,7 +16718,7 @@
         <v>904</v>
       </c>
       <c r="E597" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -16765,7 +16738,7 @@
         <v>904</v>
       </c>
       <c r="E598" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F598">
         <v>0</v>
@@ -16785,7 +16758,7 @@
         <v>904</v>
       </c>
       <c r="E599" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="F599">
         <v>0</v>
@@ -16805,7 +16778,7 @@
         <v>904</v>
       </c>
       <c r="E600" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="F600">
         <v>0</v>
@@ -16825,7 +16798,7 @@
         <v>904</v>
       </c>
       <c r="E601" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="F601">
         <v>0</v>
@@ -16845,7 +16818,7 @@
         <v>904</v>
       </c>
       <c r="E602" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -16865,7 +16838,7 @@
         <v>904</v>
       </c>
       <c r="E603" t="s">
-        <v>915</v>
+        <v>1371</v>
       </c>
       <c r="F603">
         <v>0</v>
@@ -16885,7 +16858,7 @@
         <v>904</v>
       </c>
       <c r="E604" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="F604">
         <v>0</v>
@@ -16905,7 +16878,7 @@
         <v>904</v>
       </c>
       <c r="E605" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="F605">
         <v>0</v>
@@ -16925,7 +16898,7 @@
         <v>904</v>
       </c>
       <c r="E606" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="F606">
         <v>0</v>
@@ -16945,7 +16918,7 @@
         <v>904</v>
       </c>
       <c r="E607" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="F607">
         <v>0</v>
@@ -16965,7 +16938,7 @@
         <v>904</v>
       </c>
       <c r="E608" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -16985,7 +16958,7 @@
         <v>904</v>
       </c>
       <c r="E609" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="F609">
         <v>0</v>
@@ -17005,7 +16978,7 @@
         <v>904</v>
       </c>
       <c r="E610" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="F610">
         <v>0</v>
@@ -17025,7 +16998,7 @@
         <v>904</v>
       </c>
       <c r="E611" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -17045,7 +17018,7 @@
         <v>904</v>
       </c>
       <c r="E612" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="F612">
         <v>0</v>
@@ -17065,7 +17038,7 @@
         <v>904</v>
       </c>
       <c r="E613" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="F613">
         <v>0</v>
@@ -17085,7 +17058,7 @@
         <v>904</v>
       </c>
       <c r="E614" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="F614">
         <v>0</v>
@@ -17105,7 +17078,7 @@
         <v>904</v>
       </c>
       <c r="E615" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="F615">
         <v>0</v>
@@ -17125,7 +17098,7 @@
         <v>904</v>
       </c>
       <c r="E616" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="F616">
         <v>0</v>
@@ -17145,7 +17118,7 @@
         <v>904</v>
       </c>
       <c r="E617" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="F617">
         <v>0</v>
@@ -17165,7 +17138,7 @@
         <v>904</v>
       </c>
       <c r="E618" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="F618">
         <v>0</v>
@@ -17185,7 +17158,7 @@
         <v>904</v>
       </c>
       <c r="E619" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F619">
         <v>0</v>
@@ -17205,7 +17178,7 @@
         <v>904</v>
       </c>
       <c r="E620" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -17225,7 +17198,7 @@
         <v>904</v>
       </c>
       <c r="E621" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -17245,7 +17218,7 @@
         <v>904</v>
       </c>
       <c r="E622" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="F622">
         <v>0</v>
@@ -17265,7 +17238,7 @@
         <v>904</v>
       </c>
       <c r="E623" t="s">
-        <v>1393</v>
+        <v>1302</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -17285,7 +17258,7 @@
         <v>904</v>
       </c>
       <c r="E624" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="F624">
         <v>0</v>
@@ -17305,7 +17278,7 @@
         <v>904</v>
       </c>
       <c r="E625" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="F625">
         <v>0</v>
@@ -17325,7 +17298,7 @@
         <v>904</v>
       </c>
       <c r="E626" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="F626">
         <v>0</v>
@@ -17345,7 +17318,7 @@
         <v>904</v>
       </c>
       <c r="E627" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="F627">
         <v>0</v>
@@ -17365,7 +17338,7 @@
         <v>904</v>
       </c>
       <c r="E628" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="F628">
         <v>0</v>
@@ -17385,7 +17358,7 @@
         <v>904</v>
       </c>
       <c r="E629" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F629">
         <v>0</v>
@@ -17405,7 +17378,7 @@
         <v>904</v>
       </c>
       <c r="E630" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -17425,7 +17398,7 @@
         <v>904</v>
       </c>
       <c r="E631" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="F631">
         <v>0</v>
@@ -17445,7 +17418,7 @@
         <v>904</v>
       </c>
       <c r="E632" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="F632">
         <v>0</v>
@@ -17465,7 +17438,7 @@
         <v>904</v>
       </c>
       <c r="E633" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="F633">
         <v>0</v>
@@ -17485,7 +17458,7 @@
         <v>904</v>
       </c>
       <c r="E634" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="F634">
         <v>0</v>
@@ -17505,7 +17478,7 @@
         <v>904</v>
       </c>
       <c r="E635" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="F635">
         <v>0</v>
@@ -17525,7 +17498,7 @@
         <v>904</v>
       </c>
       <c r="E636" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="F636">
         <v>0</v>
@@ -17545,7 +17518,7 @@
         <v>904</v>
       </c>
       <c r="E637" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="F637">
         <v>0</v>
@@ -17565,7 +17538,7 @@
         <v>904</v>
       </c>
       <c r="E638" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="F638">
         <v>0</v>
@@ -17585,7 +17558,7 @@
         <v>904</v>
       </c>
       <c r="E639" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="F639">
         <v>0</v>
@@ -17605,7 +17578,7 @@
         <v>904</v>
       </c>
       <c r="E640" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -17625,7 +17598,7 @@
         <v>904</v>
       </c>
       <c r="E641" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="F641">
         <v>0</v>
@@ -17645,7 +17618,7 @@
         <v>904</v>
       </c>
       <c r="E642" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="F642">
         <v>0</v>
@@ -17665,7 +17638,7 @@
         <v>904</v>
       </c>
       <c r="E643" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="F643">
         <v>0</v>
@@ -17685,7 +17658,7 @@
         <v>904</v>
       </c>
       <c r="E644" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="F644">
         <v>0</v>
@@ -17705,7 +17678,7 @@
         <v>904</v>
       </c>
       <c r="E645" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="F645">
         <v>0</v>
@@ -17725,7 +17698,7 @@
         <v>904</v>
       </c>
       <c r="E646" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="F646">
         <v>0</v>
@@ -17745,7 +17718,7 @@
         <v>904</v>
       </c>
       <c r="E647" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="F647">
         <v>0</v>
@@ -17765,7 +17738,7 @@
         <v>904</v>
       </c>
       <c r="E648" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="F648">
         <v>0</v>
@@ -17785,7 +17758,7 @@
         <v>904</v>
       </c>
       <c r="E649" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F649">
         <v>0</v>
@@ -17805,7 +17778,7 @@
         <v>904</v>
       </c>
       <c r="E650" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="F650">
         <v>0</v>
@@ -17825,7 +17798,7 @@
         <v>904</v>
       </c>
       <c r="E651" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="F651">
         <v>0</v>
@@ -17845,7 +17818,7 @@
         <v>904</v>
       </c>
       <c r="E652" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="F652">
         <v>0</v>
@@ -17865,7 +17838,7 @@
         <v>904</v>
       </c>
       <c r="E653" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="F653">
         <v>0</v>
@@ -17885,7 +17858,7 @@
         <v>904</v>
       </c>
       <c r="E654" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="F654">
         <v>0</v>
@@ -17905,7 +17878,7 @@
         <v>904</v>
       </c>
       <c r="E655" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="F655">
         <v>0</v>
@@ -17925,7 +17898,7 @@
         <v>904</v>
       </c>
       <c r="E656" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="F656">
         <v>0</v>
@@ -17945,7 +17918,7 @@
         <v>904</v>
       </c>
       <c r="E657" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="F657">
         <v>0</v>
@@ -17965,7 +17938,7 @@
         <v>904</v>
       </c>
       <c r="E658" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="F658">
         <v>0</v>
@@ -17985,7 +17958,7 @@
         <v>904</v>
       </c>
       <c r="E659" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="F659">
         <v>0</v>
@@ -18005,7 +17978,7 @@
         <v>904</v>
       </c>
       <c r="E660" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="F660">
         <v>0</v>
@@ -18025,7 +17998,7 @@
         <v>904</v>
       </c>
       <c r="E661" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="F661">
         <v>0</v>
@@ -18045,7 +18018,7 @@
         <v>904</v>
       </c>
       <c r="E662" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F662">
         <v>0</v>
@@ -18065,7 +18038,7 @@
         <v>904</v>
       </c>
       <c r="E663" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="F663">
         <v>0</v>
@@ -18085,7 +18058,7 @@
         <v>904</v>
       </c>
       <c r="E664" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="F664">
         <v>0</v>
@@ -18105,7 +18078,7 @@
         <v>904</v>
       </c>
       <c r="E665" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="F665">
         <v>0</v>
@@ -18125,7 +18098,7 @@
         <v>904</v>
       </c>
       <c r="E666" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="F666">
         <v>0</v>
@@ -18145,7 +18118,7 @@
         <v>905</v>
       </c>
       <c r="E667" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="F667">
         <v>0</v>
@@ -18165,7 +18138,7 @@
         <v>905</v>
       </c>
       <c r="E668" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="F668">
         <v>0</v>
@@ -18185,7 +18158,7 @@
         <v>905</v>
       </c>
       <c r="E669" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="F669">
         <v>0</v>
@@ -18205,7 +18178,7 @@
         <v>905</v>
       </c>
       <c r="E670" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="F670">
         <v>0</v>
@@ -18225,7 +18198,7 @@
         <v>905</v>
       </c>
       <c r="E671" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="F671">
         <v>0</v>
@@ -18245,7 +18218,7 @@
         <v>905</v>
       </c>
       <c r="E672" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="F672">
         <v>0</v>
@@ -18265,7 +18238,7 @@
         <v>905</v>
       </c>
       <c r="E673" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="F673">
         <v>0</v>
@@ -18285,7 +18258,7 @@
         <v>905</v>
       </c>
       <c r="E674" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="F674">
         <v>0</v>
@@ -18305,7 +18278,7 @@
         <v>905</v>
       </c>
       <c r="E675" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="F675">
         <v>0</v>
@@ -18325,7 +18298,7 @@
         <v>905</v>
       </c>
       <c r="E676" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="F676">
         <v>0</v>
@@ -18345,7 +18318,7 @@
         <v>905</v>
       </c>
       <c r="E677" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="F677">
         <v>0</v>
@@ -18365,7 +18338,7 @@
         <v>905</v>
       </c>
       <c r="E678" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="F678">
         <v>0</v>
@@ -18385,7 +18358,7 @@
         <v>905</v>
       </c>
       <c r="E679" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="F679">
         <v>0</v>
@@ -18405,7 +18378,7 @@
         <v>905</v>
       </c>
       <c r="E680" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="F680">
         <v>0</v>
@@ -18425,7 +18398,7 @@
         <v>905</v>
       </c>
       <c r="E681" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="F681">
         <v>0</v>
@@ -18445,7 +18418,7 @@
         <v>905</v>
       </c>
       <c r="E682" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="F682">
         <v>0</v>
@@ -18465,7 +18438,7 @@
         <v>905</v>
       </c>
       <c r="E683" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="F683">
         <v>0</v>
@@ -18485,7 +18458,7 @@
         <v>905</v>
       </c>
       <c r="E684" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="F684">
         <v>0</v>
@@ -18505,7 +18478,7 @@
         <v>905</v>
       </c>
       <c r="E685" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="F685">
         <v>0</v>
@@ -18525,7 +18498,7 @@
         <v>905</v>
       </c>
       <c r="E686" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="F686">
         <v>0</v>
@@ -18545,7 +18518,7 @@
         <v>905</v>
       </c>
       <c r="E687" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="F687">
         <v>0</v>
@@ -18565,7 +18538,7 @@
         <v>905</v>
       </c>
       <c r="E688" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F688">
         <v>0</v>
@@ -18585,7 +18558,7 @@
         <v>905</v>
       </c>
       <c r="E689" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="F689">
         <v>0</v>
@@ -18605,7 +18578,7 @@
         <v>905</v>
       </c>
       <c r="E690" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="F690">
         <v>0</v>
@@ -18625,7 +18598,7 @@
         <v>905</v>
       </c>
       <c r="E691" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="F691">
         <v>0</v>
@@ -18645,7 +18618,7 @@
         <v>905</v>
       </c>
       <c r="E692" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="F692">
         <v>0</v>
@@ -18665,7 +18638,7 @@
         <v>905</v>
       </c>
       <c r="E693" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="F693">
         <v>0</v>
@@ -18685,7 +18658,7 @@
         <v>905</v>
       </c>
       <c r="E694" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="F694">
         <v>0</v>
@@ -18705,7 +18678,7 @@
         <v>905</v>
       </c>
       <c r="E695" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="F695">
         <v>0</v>
@@ -18725,7 +18698,7 @@
         <v>905</v>
       </c>
       <c r="E696" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="F696">
         <v>0</v>
@@ -18745,7 +18718,7 @@
         <v>905</v>
       </c>
       <c r="E697" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="F697">
         <v>0</v>
@@ -18765,7 +18738,7 @@
         <v>905</v>
       </c>
       <c r="E698" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="F698">
         <v>0</v>
@@ -18785,7 +18758,7 @@
         <v>905</v>
       </c>
       <c r="E699" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F699">
         <v>0</v>
@@ -18805,7 +18778,7 @@
         <v>905</v>
       </c>
       <c r="E700" t="s">
-        <v>1441</v>
+        <v>1336</v>
       </c>
       <c r="F700">
         <v>0</v>
@@ -18825,7 +18798,7 @@
         <v>905</v>
       </c>
       <c r="E701" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="F701">
         <v>0</v>
@@ -18845,7 +18818,7 @@
         <v>905</v>
       </c>
       <c r="E702" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F702">
         <v>0</v>
@@ -18865,7 +18838,7 @@
         <v>905</v>
       </c>
       <c r="E703" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="F703">
         <v>0</v>
@@ -18885,7 +18858,7 @@
         <v>905</v>
       </c>
       <c r="E704" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="F704">
         <v>0</v>
@@ -18905,7 +18878,7 @@
         <v>905</v>
       </c>
       <c r="E705" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="F705">
         <v>0</v>
@@ -18925,7 +18898,7 @@
         <v>905</v>
       </c>
       <c r="E706" t="s">
-        <v>954</v>
+        <v>1347</v>
       </c>
       <c r="F706">
         <v>0</v>
@@ -18945,7 +18918,7 @@
         <v>905</v>
       </c>
       <c r="E707" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="F707">
         <v>0</v>
@@ -18965,7 +18938,7 @@
         <v>905</v>
       </c>
       <c r="E708" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="F708">
         <v>0</v>
@@ -18985,7 +18958,7 @@
         <v>905</v>
       </c>
       <c r="E709" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="F709">
         <v>0</v>
@@ -19005,7 +18978,7 @@
         <v>905</v>
       </c>
       <c r="E710" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="F710">
         <v>0</v>
@@ -19025,7 +18998,7 @@
         <v>905</v>
       </c>
       <c r="E711" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="F711">
         <v>0</v>
@@ -19045,7 +19018,7 @@
         <v>905</v>
       </c>
       <c r="E712" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="F712">
         <v>0</v>
@@ -19065,7 +19038,7 @@
         <v>905</v>
       </c>
       <c r="E713" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="F713">
         <v>0</v>
@@ -19085,7 +19058,7 @@
         <v>905</v>
       </c>
       <c r="E714" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="F714">
         <v>0</v>
@@ -19105,7 +19078,7 @@
         <v>905</v>
       </c>
       <c r="E715" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="F715">
         <v>0</v>
@@ -19125,7 +19098,7 @@
         <v>905</v>
       </c>
       <c r="E716" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="F716">
         <v>0</v>
@@ -19145,7 +19118,7 @@
         <v>905</v>
       </c>
       <c r="E717" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="F717">
         <v>0</v>
@@ -19165,7 +19138,7 @@
         <v>905</v>
       </c>
       <c r="E718" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="F718">
         <v>0</v>
@@ -19185,7 +19158,7 @@
         <v>905</v>
       </c>
       <c r="E719" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="F719">
         <v>0</v>
@@ -19205,7 +19178,7 @@
         <v>905</v>
       </c>
       <c r="E720" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="F720">
         <v>0</v>
@@ -19225,7 +19198,7 @@
         <v>905</v>
       </c>
       <c r="E721" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="F721">
         <v>0</v>
@@ -19245,7 +19218,7 @@
         <v>905</v>
       </c>
       <c r="E722" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="F722">
         <v>0</v>
@@ -19265,7 +19238,7 @@
         <v>905</v>
       </c>
       <c r="E723" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F723">
         <v>0</v>
@@ -19285,7 +19258,7 @@
         <v>905</v>
       </c>
       <c r="E724" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="F724">
         <v>0</v>
@@ -19305,7 +19278,7 @@
         <v>905</v>
       </c>
       <c r="E725" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="F725">
         <v>0</v>
@@ -19325,7 +19298,7 @@
         <v>905</v>
       </c>
       <c r="E726" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="F726">
         <v>0</v>
@@ -19345,7 +19318,7 @@
         <v>905</v>
       </c>
       <c r="E727" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="F727">
         <v>0</v>
@@ -19365,7 +19338,7 @@
         <v>905</v>
       </c>
       <c r="E728" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="F728">
         <v>0</v>
@@ -19385,7 +19358,7 @@
         <v>905</v>
       </c>
       <c r="E729" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="F729">
         <v>0</v>
@@ -19405,7 +19378,7 @@
         <v>905</v>
       </c>
       <c r="E730" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="F730">
         <v>0</v>
@@ -19425,7 +19398,7 @@
         <v>905</v>
       </c>
       <c r="E731" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="F731">
         <v>0</v>
@@ -19445,7 +19418,7 @@
         <v>905</v>
       </c>
       <c r="E732" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F732">
         <v>0</v>
@@ -19465,7 +19438,7 @@
         <v>905</v>
       </c>
       <c r="E733" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="F733">
         <v>0</v>
@@ -19485,7 +19458,7 @@
         <v>905</v>
       </c>
       <c r="E734" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="F734">
         <v>0</v>
@@ -19505,7 +19478,7 @@
         <v>905</v>
       </c>
       <c r="E735" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="F735">
         <v>0</v>
@@ -19525,7 +19498,7 @@
         <v>905</v>
       </c>
       <c r="E736" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="F736">
         <v>0</v>
@@ -19545,7 +19518,7 @@
         <v>905</v>
       </c>
       <c r="E737" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="F737">
         <v>0</v>
@@ -19565,7 +19538,7 @@
         <v>905</v>
       </c>
       <c r="E738" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="F738">
         <v>0</v>
@@ -19585,7 +19558,7 @@
         <v>905</v>
       </c>
       <c r="E739" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="F739">
         <v>0</v>
@@ -19605,7 +19578,7 @@
         <v>905</v>
       </c>
       <c r="E740" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="F740">
         <v>0</v>
@@ -19625,7 +19598,7 @@
         <v>905</v>
       </c>
       <c r="E741" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="F741">
         <v>0</v>
@@ -19645,7 +19618,7 @@
         <v>905</v>
       </c>
       <c r="E742" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="F742">
         <v>0</v>
@@ -19665,7 +19638,7 @@
         <v>905</v>
       </c>
       <c r="E743" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="F743">
         <v>0</v>
@@ -19685,7 +19658,7 @@
         <v>905</v>
       </c>
       <c r="E744" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="F744">
         <v>0</v>
@@ -19705,7 +19678,7 @@
         <v>905</v>
       </c>
       <c r="E745" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="F745">
         <v>0</v>
@@ -19725,7 +19698,7 @@
         <v>905</v>
       </c>
       <c r="E746" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F746">
         <v>0</v>
@@ -19745,7 +19718,7 @@
         <v>905</v>
       </c>
       <c r="E747" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="F747">
         <v>0</v>
@@ -19765,7 +19738,7 @@
         <v>905</v>
       </c>
       <c r="E748" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F748">
         <v>0</v>
@@ -19785,7 +19758,7 @@
         <v>905</v>
       </c>
       <c r="E749" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="F749">
         <v>0</v>
@@ -19805,7 +19778,7 @@
         <v>905</v>
       </c>
       <c r="E750" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="F750">
         <v>0</v>
@@ -19825,7 +19798,7 @@
         <v>905</v>
       </c>
       <c r="E751" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F751">
         <v>0</v>
@@ -19845,7 +19818,7 @@
         <v>905</v>
       </c>
       <c r="E752" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="F752">
         <v>0</v>
@@ -19865,7 +19838,7 @@
         <v>905</v>
       </c>
       <c r="E753" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="F753">
         <v>0</v>
@@ -19885,7 +19858,7 @@
         <v>905</v>
       </c>
       <c r="E754" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="F754">
         <v>0</v>
@@ -19905,7 +19878,7 @@
         <v>905</v>
       </c>
       <c r="E755" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="F755">
         <v>0</v>
@@ -19925,7 +19898,7 @@
         <v>905</v>
       </c>
       <c r="E756" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="F756">
         <v>0</v>
@@ -19945,7 +19918,7 @@
         <v>905</v>
       </c>
       <c r="E757" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F757">
         <v>0</v>
@@ -19965,7 +19938,7 @@
         <v>905</v>
       </c>
       <c r="E758" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="F758">
         <v>0</v>
@@ -19985,7 +19958,7 @@
         <v>905</v>
       </c>
       <c r="E759" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="F759">
         <v>0</v>
@@ -20005,7 +19978,7 @@
         <v>905</v>
       </c>
       <c r="E760" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="F760">
         <v>0</v>
@@ -20025,7 +19998,7 @@
         <v>905</v>
       </c>
       <c r="E761" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="F761">
         <v>0</v>
@@ -20045,7 +20018,7 @@
         <v>905</v>
       </c>
       <c r="E762" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="F762">
         <v>0</v>
@@ -20065,7 +20038,7 @@
         <v>905</v>
       </c>
       <c r="E763" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="F763">
         <v>0</v>
@@ -20085,7 +20058,7 @@
         <v>906</v>
       </c>
       <c r="E764" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="F764">
         <v>0</v>
@@ -20105,7 +20078,7 @@
         <v>906</v>
       </c>
       <c r="E765" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="F765">
         <v>0</v>
@@ -20125,7 +20098,7 @@
         <v>906</v>
       </c>
       <c r="E766" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="F766">
         <v>0</v>
@@ -20145,7 +20118,7 @@
         <v>906</v>
       </c>
       <c r="E767" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="F767">
         <v>0</v>
